--- a/REGULAR/OJT/NEW DONE/DIMAPILIS ELVIRA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DIMAPILIS ELVIRA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA5EBB4-E246-4632-8204-D3A055B1797D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB6569C-6DFE-44B0-B04D-87C0FE5AA51E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="516">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1579,6 +1579,9 @@
   </si>
   <si>
     <t>10/15,16/2015</t>
+  </si>
+  <si>
+    <t>6/26,27,29/2023</t>
   </si>
 </sst>
 </file>
@@ -1979,6 +1982,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2011,9 +2017,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2624,10 +2627,10 @@
   </sheetPr>
   <dimension ref="A2:K676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3720" topLeftCell="A280"/>
-      <selection activeCell="O14" sqref="O14"/>
-      <selection pane="bottomLeft" activeCell="F175" sqref="F175"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3720" topLeftCell="A652" activePane="bottomLeft"/>
+      <selection activeCell="K16" sqref="K16"/>
+      <selection pane="bottomLeft" activeCell="B657" sqref="B657"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2649,64 +2652,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="54"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="56"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="53"/>
+      <c r="C3" s="54"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="54"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="59" t="s">
+      <c r="F4" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2732,18 +2735,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -2790,7 +2793,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.540899999999795</v>
+        <v>40.790899999999795</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2800,7 +2803,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>77.733000000000004</v>
+        <v>75.983000000000004</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2856,7 +2859,7 @@
       <c r="D12" s="39">
         <v>0.5</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="52">
         <f>Table1[[#This Row],[EARNED]]-Table1[[#This Row],[Absence Undertime W/ Pay]]</f>
         <v>0.75</v>
       </c>
@@ -2883,7 +2886,7 @@
       <c r="D13" s="39">
         <v>1.569</v>
       </c>
-      <c r="E13" s="63">
+      <c r="E13" s="52">
         <f>SUM(C13,E12)-D13</f>
         <v>-0.81899999999999995</v>
       </c>
@@ -2910,7 +2913,7 @@
       <c r="D14" s="39">
         <v>2.5</v>
       </c>
-      <c r="E14" s="63">
+      <c r="E14" s="52">
         <f>SUM(C14,E13)-D14</f>
         <v>-2.069</v>
       </c>
@@ -2933,7 +2936,7 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="39"/>
-      <c r="E15" s="63">
+      <c r="E15" s="52">
         <f>SUM(C15,E14)-D15</f>
         <v>-2.069</v>
       </c>
@@ -2962,7 +2965,7 @@
         <v>1.25</v>
       </c>
       <c r="D16" s="39"/>
-      <c r="E16" s="63">
+      <c r="E16" s="52">
         <f>SUM(C16,E15)-D16</f>
         <v>-0.81899999999999995</v>
       </c>
@@ -2989,7 +2992,7 @@
       <c r="D17" s="39">
         <v>0.77</v>
       </c>
-      <c r="E17" s="63">
+      <c r="E17" s="52">
         <f>SUM(C17,E16)-D17</f>
         <v>-1.589</v>
       </c>
@@ -3010,7 +3013,7 @@
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
       <c r="D18" s="39"/>
-      <c r="E18" s="63">
+      <c r="E18" s="52">
         <f t="shared" ref="E18:E24" si="0">SUM(C18,E17)-D18</f>
         <v>-1.589</v>
       </c>
@@ -3039,7 +3042,7 @@
       <c r="D19" s="39">
         <v>2</v>
       </c>
-      <c r="E19" s="63">
+      <c r="E19" s="52">
         <f t="shared" si="0"/>
         <v>-2.339</v>
       </c>
@@ -3062,7 +3065,7 @@
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="39"/>
-      <c r="E20" s="63">
+      <c r="E20" s="52">
         <f>SUM(C20,E19)-D20</f>
         <v>-2.339</v>
       </c>
@@ -3089,7 +3092,7 @@
       <c r="D21" s="39">
         <v>0.51</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="52">
         <f t="shared" si="0"/>
         <v>-2.8490000000000002</v>
       </c>
@@ -3110,7 +3113,7 @@
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39"/>
-      <c r="E22" s="63">
+      <c r="E22" s="52">
         <f>SUM(C22,E21)-D22</f>
         <v>-2.8490000000000002</v>
       </c>
@@ -3133,7 +3136,7 @@
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39"/>
-      <c r="E23" s="63">
+      <c r="E23" s="52">
         <f t="shared" si="0"/>
         <v>-2.8490000000000002</v>
       </c>
@@ -3158,7 +3161,7 @@
         <v>1.25</v>
       </c>
       <c r="D24" s="39"/>
-      <c r="E24" s="63">
+      <c r="E24" s="52">
         <f t="shared" si="0"/>
         <v>-1.5990000000000002</v>
       </c>
@@ -3185,7 +3188,7 @@
       <c r="D25" s="39">
         <v>1.5</v>
       </c>
-      <c r="E25" s="63">
+      <c r="E25" s="52">
         <f>SUM(C25,E24)-D25</f>
         <v>-1.8490000000000002</v>
       </c>
@@ -3208,7 +3211,7 @@
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="39"/>
-      <c r="E26" s="63">
+      <c r="E26" s="52">
         <f>SUM(C26,E25)-D26</f>
         <v>-1.8490000000000002</v>
       </c>
@@ -3235,7 +3238,7 @@
       <c r="D27" s="39">
         <v>2.0741000000000001</v>
       </c>
-      <c r="E27" s="63">
+      <c r="E27" s="52">
         <f t="shared" ref="E27:E28" si="1">SUM(C27,E26)-D27</f>
         <v>-3.9231000000000003</v>
       </c>
@@ -3264,7 +3267,7 @@
       <c r="D28" s="39">
         <v>2</v>
       </c>
-      <c r="E28" s="63">
+      <c r="E28" s="52">
         <f t="shared" si="1"/>
         <v>-4.6730999999999998</v>
       </c>
@@ -3287,7 +3290,7 @@
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="39"/>
-      <c r="E29" s="63">
+      <c r="E29" s="52">
         <f>SUM(C29,E28)-D29</f>
         <v>-4.6730999999999998</v>
       </c>
@@ -3314,7 +3317,7 @@
       <c r="D30" s="39">
         <v>1</v>
       </c>
-      <c r="E30" s="63">
+      <c r="E30" s="52">
         <f t="shared" ref="E30:E33" si="2">SUM(C30,E29)-D30</f>
         <v>-5.6730999999999998</v>
       </c>
@@ -3339,7 +3342,7 @@
       <c r="D31" s="39">
         <v>7.2999999999999995E-2</v>
       </c>
-      <c r="E31" s="63">
+      <c r="E31" s="52">
         <f t="shared" si="2"/>
         <v>-5.7461000000000002</v>
       </c>
@@ -3364,7 +3367,7 @@
         <v>1.25</v>
       </c>
       <c r="D32" s="39"/>
-      <c r="E32" s="63">
+      <c r="E32" s="52">
         <f>SUM(C32,E31)-D32</f>
         <v>-4.4961000000000002</v>
       </c>
@@ -3391,7 +3394,7 @@
       <c r="D33" s="39">
         <v>22</v>
       </c>
-      <c r="E33" s="63">
+      <c r="E33" s="52">
         <f t="shared" si="2"/>
         <v>-26.496099999999998</v>
       </c>
@@ -3416,7 +3419,7 @@
       <c r="D34" s="39">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E34" s="63">
+      <c r="E34" s="52">
         <f>SUM(C34,E33)-D34</f>
         <v>-27.004099999999998</v>
       </c>
@@ -3443,7 +3446,7 @@
       <c r="D35" s="39">
         <v>11</v>
       </c>
-      <c r="E35" s="63">
+      <c r="E35" s="52">
         <f t="shared" ref="E35:E98" si="3">SUM(C35,E34)-D35</f>
         <v>-36.754099999999994</v>
       </c>
@@ -3470,7 +3473,7 @@
         <v>1.25</v>
       </c>
       <c r="D36" s="39"/>
-      <c r="E36" s="63">
+      <c r="E36" s="52">
         <f t="shared" si="3"/>
         <v>-35.504099999999994</v>
       </c>
@@ -3497,7 +3500,7 @@
       <c r="D37" s="39">
         <v>19</v>
       </c>
-      <c r="E37" s="63">
+      <c r="E37" s="52">
         <f t="shared" si="3"/>
         <v>-54.504099999999994</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>1.25</v>
       </c>
       <c r="D38" s="39"/>
-      <c r="E38" s="63">
+      <c r="E38" s="52">
         <f t="shared" si="3"/>
         <v>-53.254099999999994</v>
       </c>
@@ -3551,7 +3554,7 @@
       <c r="D39" s="39">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E39" s="63">
+      <c r="E39" s="52">
         <f t="shared" si="3"/>
         <v>-53.331099999999992</v>
       </c>
@@ -3578,7 +3581,7 @@
       <c r="D40" s="39">
         <v>1.5</v>
       </c>
-      <c r="E40" s="63">
+      <c r="E40" s="52">
         <f t="shared" si="3"/>
         <v>-53.581099999999992</v>
       </c>
@@ -3605,7 +3608,7 @@
       <c r="D41" s="39">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E41" s="63">
+      <c r="E41" s="52">
         <f t="shared" si="3"/>
         <v>-54.14309999999999</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>1.25</v>
       </c>
       <c r="D42" s="39"/>
-      <c r="E42" s="63">
+      <c r="E42" s="52">
         <f t="shared" si="3"/>
         <v>-52.89309999999999</v>
       </c>
@@ -3657,7 +3660,7 @@
       <c r="D43" s="39">
         <v>0.129</v>
       </c>
-      <c r="E43" s="63">
+      <c r="E43" s="52">
         <f t="shared" si="3"/>
         <v>-53.022099999999988</v>
       </c>
@@ -3684,7 +3687,7 @@
       <c r="D44" s="39">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="E44" s="63">
+      <c r="E44" s="52">
         <f t="shared" si="3"/>
         <v>-51.849099999999986</v>
       </c>
@@ -3711,7 +3714,7 @@
       <c r="D45" s="39">
         <v>3</v>
       </c>
-      <c r="E45" s="63">
+      <c r="E45" s="52">
         <f t="shared" si="3"/>
         <v>-53.599099999999986</v>
       </c>
@@ -3734,7 +3737,7 @@
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="39"/>
-      <c r="E46" s="63">
+      <c r="E46" s="52">
         <f t="shared" si="3"/>
         <v>-53.599099999999986</v>
       </c>
@@ -3759,7 +3762,7 @@
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="39"/>
-      <c r="E47" s="63">
+      <c r="E47" s="52">
         <f t="shared" si="3"/>
         <v>-53.599099999999986</v>
       </c>
@@ -3786,7 +3789,7 @@
       <c r="D48" s="39">
         <v>0.17899999999999999</v>
       </c>
-      <c r="E48" s="63">
+      <c r="E48" s="52">
         <f t="shared" si="3"/>
         <v>-53.778099999999988</v>
       </c>
@@ -3807,7 +3810,7 @@
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
       <c r="D49" s="39"/>
-      <c r="E49" s="63">
+      <c r="E49" s="52">
         <f t="shared" si="3"/>
         <v>-53.778099999999988</v>
       </c>
@@ -3836,7 +3839,7 @@
       <c r="D50" s="39">
         <v>1</v>
       </c>
-      <c r="E50" s="63">
+      <c r="E50" s="52">
         <f t="shared" si="3"/>
         <v>-53.528099999999988</v>
       </c>
@@ -3861,7 +3864,7 @@
       <c r="D51" s="39">
         <v>0.06</v>
       </c>
-      <c r="E51" s="63">
+      <c r="E51" s="52">
         <f t="shared" si="3"/>
         <v>-53.58809999999999</v>
       </c>
@@ -3886,7 +3889,7 @@
         <v>1.25</v>
       </c>
       <c r="D52" s="39"/>
-      <c r="E52" s="63">
+      <c r="E52" s="52">
         <f t="shared" si="3"/>
         <v>-52.33809999999999</v>
       </c>
@@ -3911,7 +3914,7 @@
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="39"/>
-      <c r="E53" s="63">
+      <c r="E53" s="52">
         <f t="shared" si="3"/>
         <v>-52.33809999999999</v>
       </c>
@@ -3934,7 +3937,7 @@
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="39"/>
-      <c r="E54" s="63">
+      <c r="E54" s="52">
         <f t="shared" si="3"/>
         <v>-52.33809999999999</v>
       </c>
@@ -3961,7 +3964,7 @@
       <c r="D55" s="39">
         <v>0.50800000000000001</v>
       </c>
-      <c r="E55" s="63">
+      <c r="E55" s="52">
         <f t="shared" si="3"/>
         <v>-52.846099999999993</v>
       </c>
@@ -3986,7 +3989,7 @@
         <v>1.25</v>
       </c>
       <c r="D56" s="39"/>
-      <c r="E56" s="63">
+      <c r="E56" s="52">
         <f t="shared" si="3"/>
         <v>-51.596099999999993</v>
       </c>
@@ -4013,7 +4016,7 @@
       <c r="D57" s="39">
         <v>0.129</v>
       </c>
-      <c r="E57" s="63">
+      <c r="E57" s="52">
         <f t="shared" si="3"/>
         <v>-51.725099999999991</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>1.25</v>
       </c>
       <c r="D58" s="39"/>
-      <c r="E58" s="63">
+      <c r="E58" s="52">
         <f t="shared" si="3"/>
         <v>-50.475099999999991</v>
       </c>
@@ -4065,7 +4068,7 @@
       <c r="D59" s="39">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E59" s="63">
+      <c r="E59" s="52">
         <f t="shared" si="3"/>
         <v>-50.479099999999988</v>
       </c>
@@ -4086,7 +4089,7 @@
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="39"/>
-      <c r="E60" s="63">
+      <c r="E60" s="52">
         <f t="shared" si="3"/>
         <v>-50.479099999999988</v>
       </c>
@@ -4115,7 +4118,7 @@
       <c r="D61" s="39">
         <v>1</v>
       </c>
-      <c r="E61" s="63">
+      <c r="E61" s="52">
         <f t="shared" si="3"/>
         <v>-50.229099999999988</v>
       </c>
@@ -4140,7 +4143,7 @@
       <c r="D62" s="39">
         <v>0.14399999999999999</v>
       </c>
-      <c r="E62" s="63">
+      <c r="E62" s="52">
         <f t="shared" si="3"/>
         <v>-50.373099999999987</v>
       </c>
@@ -4161,7 +4164,7 @@
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="39"/>
-      <c r="E63" s="63">
+      <c r="E63" s="52">
         <f t="shared" si="3"/>
         <v>-50.373099999999987</v>
       </c>
@@ -4192,7 +4195,7 @@
       <c r="D64" s="39">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E64" s="63">
+      <c r="E64" s="52">
         <f t="shared" si="3"/>
         <v>-49.138099999999987</v>
       </c>
@@ -4219,7 +4222,7 @@
       <c r="D65" s="39">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="E65" s="63">
+      <c r="E65" s="52">
         <f t="shared" si="3"/>
         <v>-47.921099999999988</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>1.25</v>
       </c>
       <c r="D66" s="39"/>
-      <c r="E66" s="63">
+      <c r="E66" s="52">
         <f t="shared" si="3"/>
         <v>-46.671099999999988</v>
       </c>
@@ -4271,7 +4274,7 @@
       <c r="D67" s="39">
         <v>0.53500000000000003</v>
       </c>
-      <c r="E67" s="63">
+      <c r="E67" s="52">
         <f t="shared" si="3"/>
         <v>-47.206099999999985</v>
       </c>
@@ -4298,7 +4301,7 @@
       <c r="D68" s="39">
         <v>0.11</v>
       </c>
-      <c r="E68" s="63">
+      <c r="E68" s="52">
         <f t="shared" si="3"/>
         <v>-46.066099999999985</v>
       </c>
@@ -4323,7 +4326,7 @@
         <v>1.25</v>
       </c>
       <c r="D69" s="39"/>
-      <c r="E69" s="63">
+      <c r="E69" s="52">
         <f t="shared" si="3"/>
         <v>-44.816099999999985</v>
       </c>
@@ -4350,7 +4353,7 @@
       <c r="D70" s="39">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="E70" s="63">
+      <c r="E70" s="52">
         <f t="shared" si="3"/>
         <v>-44.887099999999982</v>
       </c>
@@ -4377,7 +4380,7 @@
       <c r="D71" s="39">
         <v>1</v>
       </c>
-      <c r="E71" s="63">
+      <c r="E71" s="52">
         <f t="shared" si="3"/>
         <v>-44.637099999999982</v>
       </c>
@@ -4402,7 +4405,7 @@
       <c r="D72" s="39">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E72" s="63">
+      <c r="E72" s="52">
         <f t="shared" si="3"/>
         <v>-44.704099999999983</v>
       </c>
@@ -4429,7 +4432,7 @@
       <c r="D73" s="39">
         <v>1</v>
       </c>
-      <c r="E73" s="63">
+      <c r="E73" s="52">
         <f t="shared" si="3"/>
         <v>-44.454099999999983</v>
       </c>
@@ -4454,7 +4457,7 @@
       <c r="D74" s="39">
         <v>1</v>
       </c>
-      <c r="E74" s="63">
+      <c r="E74" s="52">
         <f t="shared" si="3"/>
         <v>-45.454099999999983</v>
       </c>
@@ -4477,7 +4480,7 @@
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
-      <c r="E75" s="63">
+      <c r="E75" s="52">
         <f t="shared" si="3"/>
         <v>-45.454099999999983</v>
       </c>
@@ -4504,7 +4507,7 @@
       <c r="D76" s="39">
         <v>0.30399999999999999</v>
       </c>
-      <c r="E76" s="63">
+      <c r="E76" s="52">
         <f t="shared" si="3"/>
         <v>-45.758099999999985</v>
       </c>
@@ -4525,7 +4528,7 @@
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
-      <c r="E77" s="63">
+      <c r="E77" s="52">
         <f t="shared" si="3"/>
         <v>-45.758099999999985</v>
       </c>
@@ -4552,7 +4555,7 @@
         <v>1.25</v>
       </c>
       <c r="D78" s="39"/>
-      <c r="E78" s="63">
+      <c r="E78" s="52">
         <f t="shared" si="3"/>
         <v>-44.508099999999985</v>
       </c>
@@ -4579,7 +4582,7 @@
       <c r="D79" s="39">
         <v>0.10400000000000001</v>
       </c>
-      <c r="E79" s="63">
+      <c r="E79" s="52">
         <f t="shared" si="3"/>
         <v>-44.612099999999984</v>
       </c>
@@ -4606,7 +4609,7 @@
       <c r="D80" s="39">
         <v>0.01</v>
       </c>
-      <c r="E80" s="63">
+      <c r="E80" s="52">
         <f t="shared" si="3"/>
         <v>-43.372099999999982</v>
       </c>
@@ -4631,7 +4634,7 @@
         <v>1.25</v>
       </c>
       <c r="D81" s="39"/>
-      <c r="E81" s="63">
+      <c r="E81" s="52">
         <f t="shared" si="3"/>
         <v>-42.122099999999982</v>
       </c>
@@ -4658,7 +4661,7 @@
       <c r="D82" s="39">
         <v>0.14200000000000002</v>
       </c>
-      <c r="E82" s="63">
+      <c r="E82" s="52">
         <f t="shared" si="3"/>
         <v>-42.264099999999985</v>
       </c>
@@ -4685,7 +4688,7 @@
       <c r="D83" s="39">
         <v>1</v>
       </c>
-      <c r="E83" s="63">
+      <c r="E83" s="52">
         <f t="shared" si="3"/>
         <v>-42.014099999999985</v>
       </c>
@@ -4710,7 +4713,7 @@
       <c r="D84" s="39">
         <v>0.11900000000000001</v>
       </c>
-      <c r="E84" s="63">
+      <c r="E84" s="52">
         <f t="shared" si="3"/>
         <v>-42.133099999999985</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>1.25</v>
       </c>
       <c r="D85" s="39"/>
-      <c r="E85" s="63">
+      <c r="E85" s="52">
         <f t="shared" si="3"/>
         <v>-40.883099999999985</v>
       </c>
@@ -4760,7 +4763,7 @@
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
-      <c r="E86" s="63">
+      <c r="E86" s="52">
         <f t="shared" si="3"/>
         <v>-40.883099999999985</v>
       </c>
@@ -4787,7 +4790,7 @@
       <c r="D87" s="39">
         <v>2.5000000000000008E-2</v>
       </c>
-      <c r="E87" s="63">
+      <c r="E87" s="52">
         <f t="shared" si="3"/>
         <v>-40.908099999999983</v>
       </c>
@@ -4814,7 +4817,7 @@
       <c r="D88" s="39">
         <v>2.04</v>
       </c>
-      <c r="E88" s="63">
+      <c r="E88" s="52">
         <f t="shared" si="3"/>
         <v>-41.698099999999982</v>
       </c>
@@ -4839,7 +4842,7 @@
         <v>1.25</v>
       </c>
       <c r="D89" s="39"/>
-      <c r="E89" s="63">
+      <c r="E89" s="52">
         <f t="shared" si="3"/>
         <v>-40.448099999999982</v>
       </c>
@@ -4866,7 +4869,7 @@
       <c r="D90" s="39">
         <v>1</v>
       </c>
-      <c r="E90" s="63">
+      <c r="E90" s="52">
         <f t="shared" si="3"/>
         <v>-41.448099999999982</v>
       </c>
@@ -4891,7 +4894,7 @@
         <v>1.25</v>
       </c>
       <c r="D91" s="39"/>
-      <c r="E91" s="63">
+      <c r="E91" s="52">
         <f t="shared" si="3"/>
         <v>-40.198099999999982</v>
       </c>
@@ -4914,7 +4917,7 @@
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
-      <c r="E92" s="63">
+      <c r="E92" s="52">
         <f t="shared" si="3"/>
         <v>-40.198099999999982</v>
       </c>
@@ -4941,7 +4944,7 @@
       <c r="D93" s="39">
         <v>2</v>
       </c>
-      <c r="E93" s="63">
+      <c r="E93" s="52">
         <f t="shared" si="3"/>
         <v>-40.948099999999982</v>
       </c>
@@ -4964,7 +4967,7 @@
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
-      <c r="E94" s="63">
+      <c r="E94" s="52">
         <f t="shared" si="3"/>
         <v>-40.948099999999982</v>
       </c>
@@ -4987,7 +4990,7 @@
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
-      <c r="E95" s="63">
+      <c r="E95" s="52">
         <f t="shared" si="3"/>
         <v>-40.948099999999982</v>
       </c>
@@ -5012,7 +5015,7 @@
         <v>1.25</v>
       </c>
       <c r="D96" s="39"/>
-      <c r="E96" s="63">
+      <c r="E96" s="52">
         <f t="shared" si="3"/>
         <v>-39.698099999999982</v>
       </c>
@@ -5039,7 +5042,7 @@
       <c r="D97" s="39">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E97" s="63">
+      <c r="E97" s="52">
         <f t="shared" si="3"/>
         <v>-39.713099999999983</v>
       </c>
@@ -5066,7 +5069,7 @@
       <c r="D98" s="39">
         <v>1</v>
       </c>
-      <c r="E98" s="63">
+      <c r="E98" s="52">
         <f t="shared" si="3"/>
         <v>-39.463099999999983</v>
       </c>
@@ -5091,7 +5094,7 @@
       <c r="D99" s="39">
         <v>1</v>
       </c>
-      <c r="E99" s="63">
+      <c r="E99" s="52">
         <f t="shared" ref="E99:E162" si="4">SUM(C99,E98)-D99</f>
         <v>-40.463099999999983</v>
       </c>
@@ -5116,7 +5119,7 @@
       <c r="D100" s="39">
         <v>5.8000000000000017E-2</v>
       </c>
-      <c r="E100" s="63">
+      <c r="E100" s="52">
         <f t="shared" si="4"/>
         <v>-40.521099999999983</v>
       </c>
@@ -5143,7 +5146,7 @@
       <c r="D101" s="39">
         <v>1.0149999999999999</v>
       </c>
-      <c r="E101" s="63">
+      <c r="E101" s="52">
         <f t="shared" si="4"/>
         <v>-40.286099999999983</v>
       </c>
@@ -5164,7 +5167,7 @@
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
-      <c r="E102" s="63">
+      <c r="E102" s="52">
         <f t="shared" si="4"/>
         <v>-40.286099999999983</v>
       </c>
@@ -5191,7 +5194,7 @@
         <v>1.25</v>
       </c>
       <c r="D103" s="39"/>
-      <c r="E103" s="63">
+      <c r="E103" s="52">
         <f t="shared" si="4"/>
         <v>-39.036099999999983</v>
       </c>
@@ -5218,7 +5221,7 @@
       <c r="D104" s="39">
         <v>3.7000000000000019E-2</v>
       </c>
-      <c r="E104" s="63">
+      <c r="E104" s="52">
         <f t="shared" si="4"/>
         <v>-39.073099999999982</v>
       </c>
@@ -5245,7 +5248,7 @@
       <c r="D105" s="39">
         <v>1.1060000000000001</v>
       </c>
-      <c r="E105" s="63">
+      <c r="E105" s="52">
         <f t="shared" si="4"/>
         <v>-38.929099999999984</v>
       </c>
@@ -5270,7 +5273,7 @@
         <v>1.25</v>
       </c>
       <c r="D106" s="39"/>
-      <c r="E106" s="63">
+      <c r="E106" s="52">
         <f t="shared" si="4"/>
         <v>-37.679099999999984</v>
       </c>
@@ -5297,7 +5300,7 @@
       <c r="D107" s="39">
         <v>1</v>
       </c>
-      <c r="E107" s="63">
+      <c r="E107" s="52">
         <f t="shared" si="4"/>
         <v>-38.679099999999984</v>
       </c>
@@ -5324,7 +5327,7 @@
         <v>1.25</v>
       </c>
       <c r="D108" s="39"/>
-      <c r="E108" s="63">
+      <c r="E108" s="52">
         <f t="shared" si="4"/>
         <v>-37.429099999999984</v>
       </c>
@@ -5349,7 +5352,7 @@
       <c r="D109" s="39">
         <v>3.7000000000000019E-2</v>
       </c>
-      <c r="E109" s="63">
+      <c r="E109" s="52">
         <f t="shared" si="4"/>
         <v>-37.466099999999983</v>
       </c>
@@ -5372,7 +5375,7 @@
       <c r="D110" s="39">
         <v>1</v>
       </c>
-      <c r="E110" s="63">
+      <c r="E110" s="52">
         <f t="shared" si="4"/>
         <v>-38.466099999999983</v>
       </c>
@@ -5397,7 +5400,7 @@
       <c r="D111" s="39">
         <v>1</v>
       </c>
-      <c r="E111" s="63">
+      <c r="E111" s="52">
         <f t="shared" si="4"/>
         <v>-39.466099999999983</v>
       </c>
@@ -5422,7 +5425,7 @@
       <c r="D112" s="39">
         <v>1</v>
       </c>
-      <c r="E112" s="63">
+      <c r="E112" s="52">
         <f t="shared" si="4"/>
         <v>-40.466099999999983</v>
       </c>
@@ -5447,7 +5450,7 @@
       <c r="D113" s="39">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E113" s="63">
+      <c r="E113" s="52">
         <f t="shared" si="4"/>
         <v>-40.58309999999998</v>
       </c>
@@ -5474,7 +5477,7 @@
       <c r="D114" s="39">
         <v>1</v>
       </c>
-      <c r="E114" s="63">
+      <c r="E114" s="52">
         <f t="shared" si="4"/>
         <v>-40.33309999999998</v>
       </c>
@@ -5499,7 +5502,7 @@
       <c r="D115" s="39">
         <v>0.04</v>
       </c>
-      <c r="E115" s="63">
+      <c r="E115" s="52">
         <f t="shared" si="4"/>
         <v>-40.37309999999998</v>
       </c>
@@ -5522,7 +5525,7 @@
         <v>1.25</v>
       </c>
       <c r="D116" s="39"/>
-      <c r="E116" s="63">
+      <c r="E116" s="52">
         <f t="shared" si="4"/>
         <v>-39.12309999999998</v>
       </c>
@@ -5549,7 +5552,7 @@
       <c r="D117" s="39">
         <v>0.5</v>
       </c>
-      <c r="E117" s="63">
+      <c r="E117" s="52">
         <f t="shared" si="4"/>
         <v>-38.37309999999998</v>
       </c>
@@ -5576,7 +5579,7 @@
       <c r="D118" s="39">
         <v>4.6000000000000006E-2</v>
       </c>
-      <c r="E118" s="63">
+      <c r="E118" s="52">
         <f t="shared" si="4"/>
         <v>-37.169099999999979</v>
       </c>
@@ -5599,7 +5602,7 @@
         <v>1.25</v>
       </c>
       <c r="D119" s="39"/>
-      <c r="E119" s="63">
+      <c r="E119" s="52">
         <f t="shared" si="4"/>
         <v>-35.919099999999979</v>
       </c>
@@ -5624,7 +5627,7 @@
         <v>1.25</v>
       </c>
       <c r="D120" s="39"/>
-      <c r="E120" s="63">
+      <c r="E120" s="52">
         <f t="shared" si="4"/>
         <v>-34.669099999999979</v>
       </c>
@@ -5651,7 +5654,7 @@
       <c r="D121" s="39">
         <v>1</v>
       </c>
-      <c r="E121" s="63">
+      <c r="E121" s="52">
         <f t="shared" si="4"/>
         <v>-35.669099999999979</v>
       </c>
@@ -5674,7 +5677,7 @@
       </c>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
-      <c r="E122" s="63">
+      <c r="E122" s="52">
         <f t="shared" si="4"/>
         <v>-35.669099999999979</v>
       </c>
@@ -5705,7 +5708,7 @@
       <c r="D123" s="39">
         <v>0.09</v>
       </c>
-      <c r="E123" s="63">
+      <c r="E123" s="52">
         <f t="shared" si="4"/>
         <v>-34.509099999999982</v>
       </c>
@@ -5730,7 +5733,7 @@
         <v>1.25</v>
       </c>
       <c r="D124" s="39"/>
-      <c r="E124" s="63">
+      <c r="E124" s="52">
         <f t="shared" si="4"/>
         <v>-33.259099999999982</v>
       </c>
@@ -5755,7 +5758,7 @@
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
-      <c r="E125" s="63">
+      <c r="E125" s="52">
         <f t="shared" si="4"/>
         <v>-33.259099999999982</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>1.25</v>
       </c>
       <c r="D126" s="39"/>
-      <c r="E126" s="63">
+      <c r="E126" s="52">
         <f t="shared" si="4"/>
         <v>-32.009099999999982</v>
       </c>
@@ -5805,7 +5808,7 @@
         <v>1.25</v>
       </c>
       <c r="D127" s="39"/>
-      <c r="E127" s="63">
+      <c r="E127" s="52">
         <f t="shared" si="4"/>
         <v>-30.759099999999982</v>
       </c>
@@ -5832,7 +5835,7 @@
       <c r="D128" s="39">
         <v>5.2000000000000011E-2</v>
       </c>
-      <c r="E128" s="63">
+      <c r="E128" s="52">
         <f t="shared" si="4"/>
         <v>-30.811099999999982</v>
       </c>
@@ -5859,7 +5862,7 @@
       <c r="D129" s="39">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="E129" s="63">
+      <c r="E129" s="52">
         <f t="shared" si="4"/>
         <v>-29.613099999999982</v>
       </c>
@@ -5886,7 +5889,7 @@
       <c r="D130" s="39">
         <v>1</v>
       </c>
-      <c r="E130" s="63">
+      <c r="E130" s="52">
         <f t="shared" si="4"/>
         <v>-29.363099999999982</v>
       </c>
@@ -5909,7 +5912,7 @@
       </c>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
-      <c r="E131" s="63">
+      <c r="E131" s="52">
         <f t="shared" si="4"/>
         <v>-29.363099999999982</v>
       </c>
@@ -5932,7 +5935,7 @@
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
-      <c r="E132" s="63">
+      <c r="E132" s="52">
         <f t="shared" si="4"/>
         <v>-29.363099999999982</v>
       </c>
@@ -5959,7 +5962,7 @@
       <c r="D133" s="39">
         <v>0.13700000000000001</v>
       </c>
-      <c r="E133" s="63">
+      <c r="E133" s="52">
         <f t="shared" si="4"/>
         <v>-29.500099999999982</v>
       </c>
@@ -5986,7 +5989,7 @@
       <c r="D134" s="39">
         <v>5.4000000000000013E-2</v>
       </c>
-      <c r="E134" s="63">
+      <c r="E134" s="52">
         <f t="shared" si="4"/>
         <v>-28.30409999999998</v>
       </c>
@@ -6009,7 +6012,7 @@
         <v>1.25</v>
       </c>
       <c r="D135" s="39"/>
-      <c r="E135" s="63">
+      <c r="E135" s="52">
         <f t="shared" si="4"/>
         <v>-27.05409999999998</v>
       </c>
@@ -6032,7 +6035,7 @@
         <v>1.25</v>
       </c>
       <c r="D136" s="39"/>
-      <c r="E136" s="63">
+      <c r="E136" s="52">
         <f t="shared" si="4"/>
         <v>-25.80409999999998</v>
       </c>
@@ -6053,7 +6056,7 @@
       </c>
       <c r="C137" s="13"/>
       <c r="D137" s="39"/>
-      <c r="E137" s="63">
+      <c r="E137" s="52">
         <f t="shared" si="4"/>
         <v>-25.80409999999998</v>
       </c>
@@ -6080,7 +6083,7 @@
       <c r="D138" s="39">
         <v>3</v>
       </c>
-      <c r="E138" s="63">
+      <c r="E138" s="52">
         <f t="shared" si="4"/>
         <v>-28.80409999999998</v>
       </c>
@@ -6109,7 +6112,7 @@
       <c r="D139" s="39">
         <v>0.11700000000000001</v>
       </c>
-      <c r="E139" s="63">
+      <c r="E139" s="52">
         <f t="shared" si="4"/>
         <v>-27.671099999999981</v>
       </c>
@@ -6130,7 +6133,7 @@
       </c>
       <c r="C140" s="13"/>
       <c r="D140" s="39"/>
-      <c r="E140" s="63">
+      <c r="E140" s="52">
         <f t="shared" si="4"/>
         <v>-27.671099999999981</v>
       </c>
@@ -6155,7 +6158,7 @@
         <v>1.25</v>
       </c>
       <c r="D141" s="39"/>
-      <c r="E141" s="63">
+      <c r="E141" s="52">
         <f t="shared" si="4"/>
         <v>-26.421099999999981</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>1.25</v>
       </c>
       <c r="D142" s="39"/>
-      <c r="E142" s="63">
+      <c r="E142" s="52">
         <f t="shared" si="4"/>
         <v>-25.171099999999981</v>
       </c>
@@ -6203,7 +6206,7 @@
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
       <c r="D143" s="39"/>
-      <c r="E143" s="63">
+      <c r="E143" s="52">
         <f t="shared" si="4"/>
         <v>-25.171099999999981</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>1.25</v>
       </c>
       <c r="D144" s="39"/>
-      <c r="E144" s="63">
+      <c r="E144" s="52">
         <f t="shared" si="4"/>
         <v>-23.921099999999981</v>
       </c>
@@ -6255,7 +6258,7 @@
       <c r="D145" s="39">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E145" s="63">
+      <c r="E145" s="52">
         <f t="shared" si="4"/>
         <v>-24.017099999999981</v>
       </c>
@@ -6282,7 +6285,7 @@
       <c r="D146" s="39">
         <v>1</v>
       </c>
-      <c r="E146" s="63">
+      <c r="E146" s="52">
         <f t="shared" si="4"/>
         <v>-23.767099999999981</v>
       </c>
@@ -6307,7 +6310,7 @@
       <c r="D147" s="39">
         <v>0.19800000000000001</v>
       </c>
-      <c r="E147" s="63">
+      <c r="E147" s="52">
         <f t="shared" si="4"/>
         <v>-23.965099999999982</v>
       </c>
@@ -6328,7 +6331,7 @@
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
       <c r="D148" s="39"/>
-      <c r="E148" s="63">
+      <c r="E148" s="52">
         <f t="shared" si="4"/>
         <v>-23.965099999999982</v>
       </c>
@@ -6357,7 +6360,7 @@
       <c r="D149" s="39">
         <v>1</v>
       </c>
-      <c r="E149" s="63">
+      <c r="E149" s="52">
         <f t="shared" si="4"/>
         <v>-23.715099999999982</v>
       </c>
@@ -6380,7 +6383,7 @@
       </c>
       <c r="C150" s="13"/>
       <c r="D150" s="39"/>
-      <c r="E150" s="63">
+      <c r="E150" s="52">
         <f t="shared" si="4"/>
         <v>-23.715099999999982</v>
       </c>
@@ -6411,7 +6414,7 @@
       <c r="D151" s="39">
         <v>0.5</v>
       </c>
-      <c r="E151" s="63">
+      <c r="E151" s="52">
         <f t="shared" si="4"/>
         <v>-22.965099999999982</v>
       </c>
@@ -6436,7 +6439,7 @@
       <c r="D152" s="39">
         <v>5.5</v>
       </c>
-      <c r="E152" s="63">
+      <c r="E152" s="52">
         <f t="shared" si="4"/>
         <v>-28.465099999999982</v>
       </c>
@@ -6461,7 +6464,7 @@
       <c r="D153" s="39">
         <v>0.623</v>
       </c>
-      <c r="E153" s="63">
+      <c r="E153" s="52">
         <f t="shared" si="4"/>
         <v>-29.088099999999983</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>1.25</v>
       </c>
       <c r="D154" s="39"/>
-      <c r="E154" s="63">
+      <c r="E154" s="52">
         <f t="shared" si="4"/>
         <v>-27.838099999999983</v>
       </c>
@@ -6511,7 +6514,7 @@
       </c>
       <c r="C155" s="13"/>
       <c r="D155" s="39"/>
-      <c r="E155" s="63">
+      <c r="E155" s="52">
         <f t="shared" si="4"/>
         <v>-27.838099999999983</v>
       </c>
@@ -6536,7 +6539,7 @@
       <c r="D156" s="39">
         <v>1</v>
       </c>
-      <c r="E156" s="63">
+      <c r="E156" s="52">
         <f t="shared" si="4"/>
         <v>-28.838099999999983</v>
       </c>
@@ -6561,7 +6564,7 @@
       <c r="D157" s="39">
         <v>1</v>
       </c>
-      <c r="E157" s="63">
+      <c r="E157" s="52">
         <f t="shared" si="4"/>
         <v>-29.838099999999983</v>
       </c>
@@ -6586,7 +6589,7 @@
       <c r="D158" s="39">
         <v>0.04</v>
       </c>
-      <c r="E158" s="63">
+      <c r="E158" s="52">
         <f t="shared" si="4"/>
         <v>-29.878099999999982</v>
       </c>
@@ -6613,7 +6616,7 @@
       <c r="D159" s="39">
         <v>0.23300000000000001</v>
       </c>
-      <c r="E159" s="63">
+      <c r="E159" s="52">
         <f t="shared" si="4"/>
         <v>-28.861099999999983</v>
       </c>
@@ -6640,7 +6643,7 @@
       <c r="D160" s="39">
         <v>0.53700000000000003</v>
       </c>
-      <c r="E160" s="63">
+      <c r="E160" s="52">
         <f t="shared" si="4"/>
         <v>-28.148099999999982</v>
       </c>
@@ -6665,7 +6668,7 @@
         <v>1.25</v>
       </c>
       <c r="D161" s="39"/>
-      <c r="E161" s="63">
+      <c r="E161" s="52">
         <f t="shared" si="4"/>
         <v>-26.898099999999982</v>
       </c>
@@ -6692,7 +6695,7 @@
       <c r="D162" s="39">
         <v>2.1000000000000005E-2</v>
       </c>
-      <c r="E162" s="63">
+      <c r="E162" s="52">
         <f t="shared" si="4"/>
         <v>-26.919099999999982</v>
       </c>
@@ -6717,7 +6720,7 @@
         <v>1.25</v>
       </c>
       <c r="D163" s="39"/>
-      <c r="E163" s="63">
+      <c r="E163" s="52">
         <f t="shared" ref="E163:E226" si="5">SUM(C163,E162)-D163</f>
         <v>-25.669099999999982</v>
       </c>
@@ -6742,7 +6745,7 @@
       </c>
       <c r="C164" s="13"/>
       <c r="D164" s="39"/>
-      <c r="E164" s="63">
+      <c r="E164" s="52">
         <f t="shared" si="5"/>
         <v>-25.669099999999982</v>
       </c>
@@ -6773,7 +6776,7 @@
       <c r="D165" s="39">
         <v>2E-3</v>
       </c>
-      <c r="E165" s="63">
+      <c r="E165" s="52">
         <f t="shared" si="5"/>
         <v>-24.421099999999981</v>
       </c>
@@ -6800,7 +6803,7 @@
       <c r="D166" s="39">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E166" s="63">
+      <c r="E166" s="52">
         <f t="shared" si="5"/>
         <v>-23.175099999999983</v>
       </c>
@@ -6823,7 +6826,7 @@
         <v>1.25</v>
       </c>
       <c r="D167" s="39"/>
-      <c r="E167" s="63">
+      <c r="E167" s="52">
         <f t="shared" si="5"/>
         <v>-21.925099999999983</v>
       </c>
@@ -6848,7 +6851,7 @@
         <v>1.25</v>
       </c>
       <c r="D168" s="39"/>
-      <c r="E168" s="63">
+      <c r="E168" s="52">
         <f t="shared" si="5"/>
         <v>-20.675099999999983</v>
       </c>
@@ -6871,7 +6874,7 @@
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
       <c r="D169" s="39"/>
-      <c r="E169" s="63">
+      <c r="E169" s="52">
         <f t="shared" si="5"/>
         <v>-20.675099999999983</v>
       </c>
@@ -6898,7 +6901,7 @@
       <c r="D170" s="39">
         <v>0.82699999999999996</v>
       </c>
-      <c r="E170" s="63">
+      <c r="E170" s="52">
         <f t="shared" si="5"/>
         <v>-20.252099999999984</v>
       </c>
@@ -6919,7 +6922,7 @@
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
       <c r="D171" s="39"/>
-      <c r="E171" s="63">
+      <c r="E171" s="52">
         <f t="shared" si="5"/>
         <v>-20.252099999999984</v>
       </c>
@@ -6946,7 +6949,7 @@
         <v>1.25</v>
       </c>
       <c r="D172" s="39"/>
-      <c r="E172" s="63">
+      <c r="E172" s="52">
         <f t="shared" si="5"/>
         <v>-19.002099999999984</v>
       </c>
@@ -6973,7 +6976,7 @@
       <c r="D173" s="39">
         <v>1.2E-2</v>
       </c>
-      <c r="E173" s="63">
+      <c r="E173" s="52">
         <f t="shared" si="5"/>
         <v>-19.014099999999985</v>
       </c>
@@ -6998,7 +7001,7 @@
         <v>1.25</v>
       </c>
       <c r="D174" s="39"/>
-      <c r="E174" s="63">
+      <c r="E174" s="52">
         <f t="shared" si="5"/>
         <v>-17.764099999999985</v>
       </c>
@@ -7025,7 +7028,7 @@
       <c r="D175" s="39">
         <v>1</v>
       </c>
-      <c r="E175" s="63">
+      <c r="E175" s="52">
         <f t="shared" si="5"/>
         <v>-18.764099999999985</v>
       </c>
@@ -7050,7 +7053,7 @@
       <c r="D176" s="39">
         <v>0.51500000000000001</v>
       </c>
-      <c r="E176" s="63">
+      <c r="E176" s="52">
         <f t="shared" si="5"/>
         <v>-19.279099999999985</v>
       </c>
@@ -7075,7 +7078,7 @@
         <v>1.25</v>
       </c>
       <c r="D177" s="39"/>
-      <c r="E177" s="63">
+      <c r="E177" s="52">
         <f t="shared" si="5"/>
         <v>-18.029099999999985</v>
       </c>
@@ -7102,7 +7105,7 @@
         <v>1.25</v>
       </c>
       <c r="D178" s="39"/>
-      <c r="E178" s="63">
+      <c r="E178" s="52">
         <f t="shared" si="5"/>
         <v>-16.779099999999985</v>
       </c>
@@ -7127,7 +7130,7 @@
       </c>
       <c r="C179" s="13"/>
       <c r="D179" s="39"/>
-      <c r="E179" s="63">
+      <c r="E179" s="52">
         <f t="shared" si="5"/>
         <v>-16.779099999999985</v>
       </c>
@@ -7150,7 +7153,7 @@
       </c>
       <c r="C180" s="13"/>
       <c r="D180" s="39"/>
-      <c r="E180" s="63">
+      <c r="E180" s="52">
         <f t="shared" si="5"/>
         <v>-16.779099999999985</v>
       </c>
@@ -7177,7 +7180,7 @@
       <c r="D181" s="39">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E181" s="63">
+      <c r="E181" s="52">
         <f t="shared" si="5"/>
         <v>-16.919099999999986</v>
       </c>
@@ -7202,7 +7205,7 @@
         <v>1.25</v>
       </c>
       <c r="D182" s="39"/>
-      <c r="E182" s="63">
+      <c r="E182" s="52">
         <f t="shared" si="5"/>
         <v>-15.669099999999986</v>
       </c>
@@ -7229,7 +7232,7 @@
       <c r="D183" s="39">
         <v>0.01</v>
       </c>
-      <c r="E183" s="63">
+      <c r="E183" s="52">
         <f t="shared" si="5"/>
         <v>-15.679099999999986</v>
       </c>
@@ -7254,7 +7257,7 @@
         <v>1.25</v>
       </c>
       <c r="D184" s="39"/>
-      <c r="E184" s="63">
+      <c r="E184" s="52">
         <f t="shared" si="5"/>
         <v>-14.429099999999986</v>
       </c>
@@ -7279,7 +7282,7 @@
       </c>
       <c r="C185" s="13"/>
       <c r="D185" s="39"/>
-      <c r="E185" s="63">
+      <c r="E185" s="52">
         <f t="shared" si="5"/>
         <v>-14.429099999999986</v>
       </c>
@@ -7302,7 +7305,7 @@
       </c>
       <c r="C186" s="13"/>
       <c r="D186" s="39"/>
-      <c r="E186" s="63">
+      <c r="E186" s="52">
         <f t="shared" si="5"/>
         <v>-14.429099999999986</v>
       </c>
@@ -7327,7 +7330,7 @@
       </c>
       <c r="C187" s="13"/>
       <c r="D187" s="39"/>
-      <c r="E187" s="63">
+      <c r="E187" s="52">
         <f t="shared" si="5"/>
         <v>-14.429099999999986</v>
       </c>
@@ -7352,7 +7355,7 @@
       </c>
       <c r="C188" s="13"/>
       <c r="D188" s="39"/>
-      <c r="E188" s="63">
+      <c r="E188" s="52">
         <f t="shared" si="5"/>
         <v>-14.429099999999986</v>
       </c>
@@ -7379,7 +7382,7 @@
       <c r="D189" s="39">
         <v>0.01</v>
       </c>
-      <c r="E189" s="63">
+      <c r="E189" s="52">
         <f t="shared" si="5"/>
         <v>-14.439099999999986</v>
       </c>
@@ -7404,7 +7407,7 @@
         <v>1.25</v>
       </c>
       <c r="D190" s="39"/>
-      <c r="E190" s="63">
+      <c r="E190" s="52">
         <f t="shared" si="5"/>
         <v>-13.189099999999986</v>
       </c>
@@ -7429,7 +7432,7 @@
       </c>
       <c r="C191" s="13"/>
       <c r="D191" s="39"/>
-      <c r="E191" s="63">
+      <c r="E191" s="52">
         <f t="shared" si="5"/>
         <v>-13.189099999999986</v>
       </c>
@@ -7458,7 +7461,7 @@
         <v>1.25</v>
       </c>
       <c r="D192" s="39"/>
-      <c r="E192" s="63">
+      <c r="E192" s="52">
         <f t="shared" si="5"/>
         <v>-11.939099999999986</v>
       </c>
@@ -7485,7 +7488,7 @@
       <c r="D193" s="39">
         <v>0.10200000000000001</v>
       </c>
-      <c r="E193" s="63">
+      <c r="E193" s="52">
         <f t="shared" si="5"/>
         <v>-12.041099999999986</v>
       </c>
@@ -7510,7 +7513,7 @@
         <v>1.25</v>
       </c>
       <c r="D194" s="39"/>
-      <c r="E194" s="63">
+      <c r="E194" s="52">
         <f t="shared" si="5"/>
         <v>-10.791099999999986</v>
       </c>
@@ -7535,7 +7538,7 @@
       </c>
       <c r="C195" s="13"/>
       <c r="D195" s="39"/>
-      <c r="E195" s="63">
+      <c r="E195" s="52">
         <f t="shared" si="5"/>
         <v>-10.791099999999986</v>
       </c>
@@ -7562,7 +7565,7 @@
       <c r="D196" s="39">
         <v>0.59399999999999997</v>
       </c>
-      <c r="E196" s="63">
+      <c r="E196" s="52">
         <f t="shared" si="5"/>
         <v>-11.385099999999985</v>
       </c>
@@ -7583,7 +7586,7 @@
       </c>
       <c r="C197" s="13"/>
       <c r="D197" s="39"/>
-      <c r="E197" s="63">
+      <c r="E197" s="52">
         <f t="shared" si="5"/>
         <v>-11.385099999999985</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>1.25</v>
       </c>
       <c r="D198" s="39"/>
-      <c r="E198" s="63">
+      <c r="E198" s="52">
         <f t="shared" si="5"/>
         <v>-10.135099999999985</v>
       </c>
@@ -7635,7 +7638,7 @@
         <v>1.25</v>
       </c>
       <c r="D199" s="39"/>
-      <c r="E199" s="63">
+      <c r="E199" s="52">
         <f t="shared" si="5"/>
         <v>-8.8850999999999853</v>
       </c>
@@ -7660,7 +7663,7 @@
       </c>
       <c r="C200" s="13"/>
       <c r="D200" s="39"/>
-      <c r="E200" s="63">
+      <c r="E200" s="52">
         <f t="shared" si="5"/>
         <v>-8.8850999999999853</v>
       </c>
@@ -7687,7 +7690,7 @@
       <c r="D201" s="39">
         <v>5</v>
       </c>
-      <c r="E201" s="63">
+      <c r="E201" s="52">
         <f t="shared" si="5"/>
         <v>-13.885099999999985</v>
       </c>
@@ -7710,7 +7713,7 @@
       </c>
       <c r="C202" s="13"/>
       <c r="D202" s="39"/>
-      <c r="E202" s="63">
+      <c r="E202" s="52">
         <f t="shared" si="5"/>
         <v>-13.885099999999985</v>
       </c>
@@ -7735,7 +7738,7 @@
       </c>
       <c r="C203" s="13"/>
       <c r="D203" s="39"/>
-      <c r="E203" s="63">
+      <c r="E203" s="52">
         <f t="shared" si="5"/>
         <v>-13.885099999999985</v>
       </c>
@@ -7762,7 +7765,7 @@
       <c r="D204" s="39">
         <v>0.04</v>
       </c>
-      <c r="E204" s="63">
+      <c r="E204" s="52">
         <f t="shared" si="5"/>
         <v>-13.925099999999984</v>
       </c>
@@ -7789,7 +7792,7 @@
       <c r="D205" s="39">
         <v>0.13100000000000001</v>
       </c>
-      <c r="E205" s="63">
+      <c r="E205" s="52">
         <f t="shared" si="5"/>
         <v>-12.806099999999985</v>
       </c>
@@ -7810,7 +7813,7 @@
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
       <c r="D206" s="39"/>
-      <c r="E206" s="63">
+      <c r="E206" s="52">
         <f t="shared" si="5"/>
         <v>-12.806099999999985</v>
       </c>
@@ -7837,7 +7840,7 @@
         <v>1.25</v>
       </c>
       <c r="D207" s="39"/>
-      <c r="E207" s="63">
+      <c r="E207" s="52">
         <f t="shared" si="5"/>
         <v>-11.556099999999985</v>
       </c>
@@ -7862,7 +7865,7 @@
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="39"/>
-      <c r="E208" s="63">
+      <c r="E208" s="52">
         <f t="shared" si="5"/>
         <v>-11.556099999999985</v>
       </c>
@@ -7889,7 +7892,7 @@
       <c r="D209" s="39">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="E209" s="63">
+      <c r="E209" s="52">
         <f t="shared" si="5"/>
         <v>-11.598099999999985</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>1.25</v>
       </c>
       <c r="D210" s="39"/>
-      <c r="E210" s="63">
+      <c r="E210" s="52">
         <f t="shared" si="5"/>
         <v>-10.348099999999985</v>
       </c>
@@ -7941,7 +7944,7 @@
       <c r="D211" s="39">
         <v>0.53300000000000003</v>
       </c>
-      <c r="E211" s="63">
+      <c r="E211" s="52">
         <f t="shared" si="5"/>
         <v>-10.881099999999984</v>
       </c>
@@ -7966,7 +7969,7 @@
         <v>1.25</v>
       </c>
       <c r="D212" s="39"/>
-      <c r="E212" s="63">
+      <c r="E212" s="52">
         <f t="shared" si="5"/>
         <v>-9.631099999999984</v>
       </c>
@@ -7993,7 +7996,7 @@
       <c r="D213" s="39">
         <v>6.0000000000000019E-2</v>
       </c>
-      <c r="E213" s="63">
+      <c r="E213" s="52">
         <f t="shared" si="5"/>
         <v>-9.6910999999999845</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>1.25</v>
       </c>
       <c r="D214" s="39"/>
-      <c r="E214" s="63">
+      <c r="E214" s="52">
         <f t="shared" si="5"/>
         <v>-8.4410999999999845</v>
       </c>
@@ -8043,7 +8046,7 @@
       </c>
       <c r="C215" s="13"/>
       <c r="D215" s="39"/>
-      <c r="E215" s="63">
+      <c r="E215" s="52">
         <f t="shared" si="5"/>
         <v>-8.4410999999999845</v>
       </c>
@@ -8068,7 +8071,7 @@
       </c>
       <c r="C216" s="13"/>
       <c r="D216" s="39"/>
-      <c r="E216" s="63">
+      <c r="E216" s="52">
         <f t="shared" si="5"/>
         <v>-8.4410999999999845</v>
       </c>
@@ -8091,7 +8094,7 @@
       </c>
       <c r="C217" s="13"/>
       <c r="D217" s="39"/>
-      <c r="E217" s="63">
+      <c r="E217" s="52">
         <f t="shared" si="5"/>
         <v>-8.4410999999999845</v>
       </c>
@@ -8116,7 +8119,7 @@
       </c>
       <c r="C218" s="13"/>
       <c r="D218" s="39"/>
-      <c r="E218" s="63">
+      <c r="E218" s="52">
         <f t="shared" si="5"/>
         <v>-8.4410999999999845</v>
       </c>
@@ -8143,7 +8146,7 @@
       <c r="D219" s="39">
         <v>0.56200000000000006</v>
       </c>
-      <c r="E219" s="63">
+      <c r="E219" s="52">
         <f t="shared" si="5"/>
         <v>-9.0030999999999839</v>
       </c>
@@ -8168,7 +8171,7 @@
         <v>1.25</v>
       </c>
       <c r="D220" s="39"/>
-      <c r="E220" s="63">
+      <c r="E220" s="52">
         <f t="shared" si="5"/>
         <v>-7.7530999999999839</v>
       </c>
@@ -8191,7 +8194,7 @@
       </c>
       <c r="C221" s="13"/>
       <c r="D221" s="39"/>
-      <c r="E221" s="63">
+      <c r="E221" s="52">
         <f t="shared" si="5"/>
         <v>-7.7530999999999839</v>
       </c>
@@ -8218,7 +8221,7 @@
       <c r="D222" s="39">
         <v>0.14200000000000002</v>
       </c>
-      <c r="E222" s="63">
+      <c r="E222" s="52">
         <f t="shared" si="5"/>
         <v>-7.8950999999999842</v>
       </c>
@@ -8243,7 +8246,7 @@
         <v>1.25</v>
       </c>
       <c r="D223" s="39"/>
-      <c r="E223" s="63">
+      <c r="E223" s="52">
         <f t="shared" si="5"/>
         <v>-6.6450999999999842</v>
       </c>
@@ -8272,7 +8275,7 @@
         <v>1.25</v>
       </c>
       <c r="D224" s="39"/>
-      <c r="E224" s="63">
+      <c r="E224" s="52">
         <f t="shared" si="5"/>
         <v>-5.3950999999999842</v>
       </c>
@@ -8297,7 +8300,7 @@
       </c>
       <c r="C225" s="13"/>
       <c r="D225" s="39"/>
-      <c r="E225" s="63">
+      <c r="E225" s="52">
         <f t="shared" si="5"/>
         <v>-5.3950999999999842</v>
       </c>
@@ -8324,7 +8327,7 @@
       <c r="D226" s="39">
         <v>0.627</v>
       </c>
-      <c r="E226" s="63">
+      <c r="E226" s="52">
         <f t="shared" si="5"/>
         <v>-6.022099999999984</v>
       </c>
@@ -8349,7 +8352,7 @@
         <v>1.25</v>
       </c>
       <c r="D227" s="39"/>
-      <c r="E227" s="63">
+      <c r="E227" s="52">
         <f t="shared" ref="E227:E290" si="6">SUM(C227,E226)-D227</f>
         <v>-4.772099999999984</v>
       </c>
@@ -8374,7 +8377,7 @@
       </c>
       <c r="C228" s="13"/>
       <c r="D228" s="39"/>
-      <c r="E228" s="63">
+      <c r="E228" s="52">
         <f t="shared" si="6"/>
         <v>-4.772099999999984</v>
       </c>
@@ -8401,7 +8404,7 @@
       <c r="D229" s="39">
         <v>0.14800000000000002</v>
       </c>
-      <c r="E229" s="63">
+      <c r="E229" s="52">
         <f t="shared" si="6"/>
         <v>-4.9200999999999837</v>
       </c>
@@ -8428,7 +8431,7 @@
       <c r="D230" s="39">
         <v>1</v>
       </c>
-      <c r="E230" s="63">
+      <c r="E230" s="52">
         <f t="shared" si="6"/>
         <v>-4.6700999999999837</v>
       </c>
@@ -8451,7 +8454,7 @@
       </c>
       <c r="C231" s="13"/>
       <c r="D231" s="39"/>
-      <c r="E231" s="63">
+      <c r="E231" s="52">
         <f t="shared" si="6"/>
         <v>-4.6700999999999837</v>
       </c>
@@ -8478,7 +8481,7 @@
       <c r="D232" s="39">
         <v>0.13500000000000001</v>
       </c>
-      <c r="E232" s="63">
+      <c r="E232" s="52">
         <f t="shared" si="6"/>
         <v>-4.8050999999999835</v>
       </c>
@@ -8503,7 +8506,7 @@
         <v>1.25</v>
       </c>
       <c r="D233" s="39"/>
-      <c r="E233" s="63">
+      <c r="E233" s="52">
         <f t="shared" si="6"/>
         <v>-3.5550999999999835</v>
       </c>
@@ -8530,7 +8533,7 @@
       <c r="D234" s="39">
         <v>1</v>
       </c>
-      <c r="E234" s="63">
+      <c r="E234" s="52">
         <f t="shared" si="6"/>
         <v>-4.5550999999999835</v>
       </c>
@@ -8555,7 +8558,7 @@
       <c r="D235" s="39">
         <v>0.127</v>
       </c>
-      <c r="E235" s="63">
+      <c r="E235" s="52">
         <f t="shared" si="6"/>
         <v>-4.6820999999999833</v>
       </c>
@@ -8582,7 +8585,7 @@
       <c r="D236" s="39">
         <v>1</v>
       </c>
-      <c r="E236" s="63">
+      <c r="E236" s="52">
         <f t="shared" si="6"/>
         <v>-4.4320999999999833</v>
       </c>
@@ -8607,7 +8610,7 @@
       <c r="D237" s="39">
         <v>3</v>
       </c>
-      <c r="E237" s="63">
+      <c r="E237" s="52">
         <f t="shared" si="6"/>
         <v>-7.4320999999999833</v>
       </c>
@@ -8632,7 +8635,7 @@
       <c r="D238" s="39">
         <v>7.3000000000000009E-2</v>
       </c>
-      <c r="E238" s="63">
+      <c r="E238" s="52">
         <f t="shared" si="6"/>
         <v>-7.5050999999999837</v>
       </c>
@@ -8657,7 +8660,7 @@
         <v>1.25</v>
       </c>
       <c r="D239" s="39"/>
-      <c r="E239" s="63">
+      <c r="E239" s="52">
         <f t="shared" si="6"/>
         <v>-6.2550999999999837</v>
       </c>
@@ -8684,7 +8687,7 @@
       <c r="D240" s="39">
         <v>0.63300000000000001</v>
       </c>
-      <c r="E240" s="63">
+      <c r="E240" s="52">
         <f t="shared" si="6"/>
         <v>-6.8880999999999837</v>
       </c>
@@ -8705,7 +8708,7 @@
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
       <c r="D241" s="39"/>
-      <c r="E241" s="63">
+      <c r="E241" s="52">
         <f t="shared" si="6"/>
         <v>-6.8880999999999837</v>
       </c>
@@ -8732,7 +8735,7 @@
         <v>1.25</v>
       </c>
       <c r="D242" s="39"/>
-      <c r="E242" s="63">
+      <c r="E242" s="52">
         <f t="shared" si="6"/>
         <v>-5.6380999999999837</v>
       </c>
@@ -8757,7 +8760,7 @@
       <c r="D243" s="39">
         <v>0.223</v>
       </c>
-      <c r="E243" s="63">
+      <c r="E243" s="52">
         <f t="shared" si="6"/>
         <v>-5.8610999999999835</v>
       </c>
@@ -8782,7 +8785,7 @@
         <v>1.25</v>
       </c>
       <c r="D244" s="39"/>
-      <c r="E244" s="63">
+      <c r="E244" s="52">
         <f t="shared" si="6"/>
         <v>-4.6110999999999835</v>
       </c>
@@ -8807,7 +8810,7 @@
       </c>
       <c r="C245" s="13"/>
       <c r="D245" s="39"/>
-      <c r="E245" s="63">
+      <c r="E245" s="52">
         <f t="shared" si="6"/>
         <v>-4.6110999999999835</v>
       </c>
@@ -8838,7 +8841,7 @@
       <c r="D246" s="39">
         <v>0.32300000000000001</v>
       </c>
-      <c r="E246" s="63">
+      <c r="E246" s="52">
         <f t="shared" si="6"/>
         <v>-3.6840999999999835</v>
       </c>
@@ -8859,7 +8862,7 @@
       </c>
       <c r="C247" s="13"/>
       <c r="D247" s="39"/>
-      <c r="E247" s="63">
+      <c r="E247" s="52">
         <f t="shared" si="6"/>
         <v>-3.6840999999999835</v>
       </c>
@@ -8886,7 +8889,7 @@
       <c r="D248" s="39">
         <v>0.10800000000000001</v>
       </c>
-      <c r="E248" s="63">
+      <c r="E248" s="52">
         <f t="shared" si="6"/>
         <v>-3.7920999999999836</v>
       </c>
@@ -8911,7 +8914,7 @@
         <v>1.25</v>
       </c>
       <c r="D249" s="39"/>
-      <c r="E249" s="63">
+      <c r="E249" s="52">
         <f t="shared" si="6"/>
         <v>-2.5420999999999836</v>
       </c>
@@ -8936,7 +8939,7 @@
       <c r="D250" s="39">
         <v>1</v>
       </c>
-      <c r="E250" s="63">
+      <c r="E250" s="52">
         <f t="shared" si="6"/>
         <v>-3.5420999999999836</v>
       </c>
@@ -8959,7 +8962,7 @@
       </c>
       <c r="C251" s="13"/>
       <c r="D251" s="39"/>
-      <c r="E251" s="63">
+      <c r="E251" s="52">
         <f t="shared" si="6"/>
         <v>-3.5420999999999836</v>
       </c>
@@ -8984,7 +8987,7 @@
       </c>
       <c r="C252" s="13"/>
       <c r="D252" s="39"/>
-      <c r="E252" s="63">
+      <c r="E252" s="52">
         <f t="shared" si="6"/>
         <v>-3.5420999999999836</v>
       </c>
@@ -9011,7 +9014,7 @@
       <c r="D253" s="39">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="E253" s="63">
+      <c r="E253" s="52">
         <f t="shared" si="6"/>
         <v>-3.5460999999999836</v>
       </c>
@@ -9036,7 +9039,7 @@
         <v>1.25</v>
       </c>
       <c r="D254" s="39"/>
-      <c r="E254" s="63">
+      <c r="E254" s="52">
         <f t="shared" si="6"/>
         <v>-2.2960999999999836</v>
       </c>
@@ -9063,7 +9066,7 @@
       <c r="D255" s="39">
         <v>0.72899999999999998</v>
       </c>
-      <c r="E255" s="63">
+      <c r="E255" s="52">
         <f t="shared" si="6"/>
         <v>-3.0250999999999837</v>
       </c>
@@ -9088,7 +9091,7 @@
         <v>1.25</v>
       </c>
       <c r="D256" s="39"/>
-      <c r="E256" s="63">
+      <c r="E256" s="52">
         <f t="shared" si="6"/>
         <v>-1.7750999999999837</v>
       </c>
@@ -9115,7 +9118,7 @@
       <c r="D257" s="39">
         <v>0.04</v>
       </c>
-      <c r="E257" s="63">
+      <c r="E257" s="52">
         <f t="shared" si="6"/>
         <v>-1.8150999999999837</v>
       </c>
@@ -9142,7 +9145,7 @@
       <c r="D258" s="39">
         <v>2.75</v>
       </c>
-      <c r="E258" s="63">
+      <c r="E258" s="52">
         <f t="shared" si="6"/>
         <v>-3.3150999999999837</v>
       </c>
@@ -9169,7 +9172,7 @@
       <c r="D259" s="39">
         <v>1</v>
       </c>
-      <c r="E259" s="63">
+      <c r="E259" s="52">
         <f t="shared" si="6"/>
         <v>-4.3150999999999833</v>
       </c>
@@ -9192,7 +9195,7 @@
       <c r="D260" s="39">
         <v>3.2919999999999998</v>
       </c>
-      <c r="E260" s="63">
+      <c r="E260" s="52">
         <f t="shared" si="6"/>
         <v>-7.6070999999999831</v>
       </c>
@@ -9219,7 +9222,7 @@
       <c r="D261" s="39">
         <v>4.8000000000000008E-2</v>
       </c>
-      <c r="E261" s="63">
+      <c r="E261" s="52">
         <f t="shared" si="6"/>
         <v>-6.4050999999999831</v>
       </c>
@@ -9244,7 +9247,7 @@
         <v>1.25</v>
       </c>
       <c r="D262" s="39"/>
-      <c r="E262" s="63">
+      <c r="E262" s="52">
         <f t="shared" si="6"/>
         <v>-5.1550999999999831</v>
       </c>
@@ -9269,7 +9272,7 @@
       </c>
       <c r="C263" s="13"/>
       <c r="D263" s="39"/>
-      <c r="E263" s="63">
+      <c r="E263" s="52">
         <f t="shared" si="6"/>
         <v>-5.1550999999999831</v>
       </c>
@@ -9296,7 +9299,7 @@
       <c r="D264" s="39">
         <v>0.10600000000000001</v>
       </c>
-      <c r="E264" s="63">
+      <c r="E264" s="52">
         <f t="shared" si="6"/>
         <v>-5.261099999999983</v>
       </c>
@@ -9323,7 +9326,7 @@
       <c r="D265" s="39">
         <v>1</v>
       </c>
-      <c r="E265" s="63">
+      <c r="E265" s="52">
         <f t="shared" si="6"/>
         <v>-5.011099999999983</v>
       </c>
@@ -9348,7 +9351,7 @@
       <c r="D266" s="39">
         <v>1.052</v>
       </c>
-      <c r="E266" s="63">
+      <c r="E266" s="52">
         <f t="shared" si="6"/>
         <v>-6.0630999999999826</v>
       </c>
@@ -9375,7 +9378,7 @@
       <c r="D267" s="39">
         <v>3</v>
       </c>
-      <c r="E267" s="63">
+      <c r="E267" s="52">
         <f t="shared" si="6"/>
         <v>-7.8130999999999826</v>
       </c>
@@ -9398,7 +9401,7 @@
       </c>
       <c r="C268" s="13"/>
       <c r="D268" s="39"/>
-      <c r="E268" s="63">
+      <c r="E268" s="52">
         <f t="shared" si="6"/>
         <v>-7.8130999999999826</v>
       </c>
@@ -9423,7 +9426,7 @@
       <c r="D269" s="39">
         <v>1.35</v>
       </c>
-      <c r="E269" s="63">
+      <c r="E269" s="52">
         <f t="shared" si="6"/>
         <v>-9.1630999999999823</v>
       </c>
@@ -9450,7 +9453,7 @@
       <c r="D270" s="39">
         <v>1.294</v>
       </c>
-      <c r="E270" s="63">
+      <c r="E270" s="52">
         <f t="shared" si="6"/>
         <v>-9.2070999999999827</v>
       </c>
@@ -9471,7 +9474,7 @@
       <c r="B271" s="20"/>
       <c r="C271" s="13"/>
       <c r="D271" s="39"/>
-      <c r="E271" s="63">
+      <c r="E271" s="52">
         <f t="shared" si="6"/>
         <v>-9.2070999999999827</v>
       </c>
@@ -9500,7 +9503,7 @@
       <c r="D272" s="39">
         <v>1</v>
       </c>
-      <c r="E272" s="63">
+      <c r="E272" s="52">
         <f t="shared" si="6"/>
         <v>-8.9570999999999827</v>
       </c>
@@ -9523,7 +9526,7 @@
       </c>
       <c r="C273" s="13"/>
       <c r="D273" s="39"/>
-      <c r="E273" s="63">
+      <c r="E273" s="52">
         <f t="shared" si="6"/>
         <v>-8.9570999999999827</v>
       </c>
@@ -9548,7 +9551,7 @@
       </c>
       <c r="C274" s="13"/>
       <c r="D274" s="39"/>
-      <c r="E274" s="63">
+      <c r="E274" s="52">
         <f t="shared" si="6"/>
         <v>-8.9570999999999827</v>
       </c>
@@ -9573,7 +9576,7 @@
       <c r="D275" s="39">
         <v>1.327</v>
       </c>
-      <c r="E275" s="63">
+      <c r="E275" s="52">
         <f t="shared" si="6"/>
         <v>-10.284099999999983</v>
       </c>
@@ -9598,7 +9601,7 @@
         <v>1.25</v>
       </c>
       <c r="D276" s="39"/>
-      <c r="E276" s="63">
+      <c r="E276" s="52">
         <f t="shared" si="6"/>
         <v>-9.0340999999999827</v>
       </c>
@@ -9625,7 +9628,7 @@
       <c r="D277" s="39">
         <v>3.0190000000000001</v>
       </c>
-      <c r="E277" s="63">
+      <c r="E277" s="52">
         <f t="shared" si="6"/>
         <v>-12.053099999999983</v>
       </c>
@@ -9650,7 +9653,7 @@
         <v>1.25</v>
       </c>
       <c r="D278" s="39"/>
-      <c r="E278" s="63">
+      <c r="E278" s="52">
         <f t="shared" si="6"/>
         <v>-10.803099999999983</v>
       </c>
@@ -9675,7 +9678,7 @@
       </c>
       <c r="C279" s="13"/>
       <c r="D279" s="39"/>
-      <c r="E279" s="63">
+      <c r="E279" s="52">
         <f t="shared" si="6"/>
         <v>-10.803099999999983</v>
       </c>
@@ -9700,7 +9703,7 @@
       </c>
       <c r="C280" s="13"/>
       <c r="D280" s="39"/>
-      <c r="E280" s="63">
+      <c r="E280" s="52">
         <f t="shared" si="6"/>
         <v>-10.803099999999983</v>
       </c>
@@ -9725,7 +9728,7 @@
       </c>
       <c r="C281" s="13"/>
       <c r="D281" s="39"/>
-      <c r="E281" s="63">
+      <c r="E281" s="52">
         <f t="shared" si="6"/>
         <v>-10.803099999999983</v>
       </c>
@@ -9748,7 +9751,7 @@
       </c>
       <c r="C282" s="13"/>
       <c r="D282" s="39"/>
-      <c r="E282" s="63">
+      <c r="E282" s="52">
         <f t="shared" si="6"/>
         <v>-10.803099999999983</v>
       </c>
@@ -9775,7 +9778,7 @@
       <c r="D283" s="39">
         <v>4.0579999999999998</v>
       </c>
-      <c r="E283" s="63">
+      <c r="E283" s="52">
         <f t="shared" si="6"/>
         <v>-14.861099999999983</v>
       </c>
@@ -9802,7 +9805,7 @@
       <c r="D284" s="39">
         <v>1</v>
       </c>
-      <c r="E284" s="63">
+      <c r="E284" s="52">
         <f t="shared" si="6"/>
         <v>-14.611099999999983</v>
       </c>
@@ -9827,7 +9830,7 @@
       <c r="D285" s="39">
         <v>1.1560000000000001</v>
       </c>
-      <c r="E285" s="63">
+      <c r="E285" s="52">
         <f t="shared" si="6"/>
         <v>-15.767099999999983</v>
       </c>
@@ -9852,7 +9855,7 @@
         <v>1.25</v>
       </c>
       <c r="D286" s="39"/>
-      <c r="E286" s="63">
+      <c r="E286" s="52">
         <f t="shared" si="6"/>
         <v>-14.517099999999983</v>
       </c>
@@ -9879,7 +9882,7 @@
       <c r="D287" s="39">
         <v>1.1559999999999999</v>
       </c>
-      <c r="E287" s="63">
+      <c r="E287" s="52">
         <f t="shared" si="6"/>
         <v>-15.673099999999984</v>
       </c>
@@ -9904,7 +9907,7 @@
         <v>1.25</v>
       </c>
       <c r="D288" s="39"/>
-      <c r="E288" s="63">
+      <c r="E288" s="52">
         <f t="shared" si="6"/>
         <v>-14.423099999999984</v>
       </c>
@@ -9929,7 +9932,7 @@
       </c>
       <c r="C289" s="13"/>
       <c r="D289" s="39"/>
-      <c r="E289" s="63">
+      <c r="E289" s="52">
         <f t="shared" si="6"/>
         <v>-14.423099999999984</v>
       </c>
@@ -9956,7 +9959,7 @@
       <c r="D290" s="39">
         <v>1</v>
       </c>
-      <c r="E290" s="63">
+      <c r="E290" s="52">
         <f t="shared" si="6"/>
         <v>-15.423099999999984</v>
       </c>
@@ -9981,7 +9984,7 @@
       <c r="D291" s="39">
         <v>0.5</v>
       </c>
-      <c r="E291" s="63">
+      <c r="E291" s="52">
         <f t="shared" ref="E291:E354" si="7">SUM(C291,E290)-D291</f>
         <v>-15.923099999999984</v>
       </c>
@@ -10008,7 +10011,7 @@
       <c r="D292" s="39">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="E292" s="63">
+      <c r="E292" s="52">
         <f t="shared" si="7"/>
         <v>-14.729099999999983</v>
       </c>
@@ -10035,7 +10038,7 @@
       <c r="D293" s="39">
         <v>1</v>
       </c>
-      <c r="E293" s="63">
+      <c r="E293" s="52">
         <f t="shared" si="7"/>
         <v>-14.479099999999983</v>
       </c>
@@ -10060,7 +10063,7 @@
         <v>1.25</v>
       </c>
       <c r="D294" s="39"/>
-      <c r="E294" s="63">
+      <c r="E294" s="52">
         <f t="shared" si="7"/>
         <v>-13.229099999999983</v>
       </c>
@@ -10087,7 +10090,7 @@
       <c r="D295" s="39">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="E295" s="63">
+      <c r="E295" s="52">
         <f t="shared" si="7"/>
         <v>-13.312099999999983</v>
       </c>
@@ -10114,7 +10117,7 @@
       <c r="D296" s="39">
         <v>2</v>
       </c>
-      <c r="E296" s="63">
+      <c r="E296" s="52">
         <f t="shared" si="7"/>
         <v>-14.062099999999983</v>
       </c>
@@ -10141,7 +10144,7 @@
         <v>1.25</v>
       </c>
       <c r="D297" s="39"/>
-      <c r="E297" s="63">
+      <c r="E297" s="52">
         <f t="shared" si="7"/>
         <v>-12.812099999999983</v>
       </c>
@@ -10166,7 +10169,7 @@
       </c>
       <c r="C298" s="13"/>
       <c r="D298" s="39"/>
-      <c r="E298" s="63">
+      <c r="E298" s="52">
         <f t="shared" si="7"/>
         <v>-12.812099999999983</v>
       </c>
@@ -10191,7 +10194,7 @@
       <c r="D299" s="39">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="E299" s="63">
+      <c r="E299" s="52">
         <f t="shared" si="7"/>
         <v>-12.879099999999983</v>
       </c>
@@ -10216,7 +10219,7 @@
         <v>1.25</v>
       </c>
       <c r="D300" s="39"/>
-      <c r="E300" s="63">
+      <c r="E300" s="52">
         <f t="shared" si="7"/>
         <v>-11.629099999999983</v>
       </c>
@@ -10243,7 +10246,7 @@
       <c r="D301" s="39">
         <v>2</v>
       </c>
-      <c r="E301" s="63">
+      <c r="E301" s="52">
         <f t="shared" si="7"/>
         <v>-13.629099999999983</v>
       </c>
@@ -10266,7 +10269,7 @@
       <c r="D302" s="39">
         <v>0.57899999999999996</v>
       </c>
-      <c r="E302" s="63">
+      <c r="E302" s="52">
         <f t="shared" si="7"/>
         <v>-14.208099999999984</v>
       </c>
@@ -10287,7 +10290,7 @@
       <c r="B303" s="20"/>
       <c r="C303" s="13"/>
       <c r="D303" s="39"/>
-      <c r="E303" s="63">
+      <c r="E303" s="52">
         <f t="shared" si="7"/>
         <v>-14.208099999999984</v>
       </c>
@@ -10314,7 +10317,7 @@
         <v>1.25</v>
       </c>
       <c r="D304" s="39"/>
-      <c r="E304" s="63">
+      <c r="E304" s="52">
         <f t="shared" si="7"/>
         <v>-12.958099999999984</v>
       </c>
@@ -10341,7 +10344,7 @@
         <v>1.25</v>
       </c>
       <c r="D305" s="39"/>
-      <c r="E305" s="63">
+      <c r="E305" s="52">
         <f t="shared" si="7"/>
         <v>-11.708099999999984</v>
       </c>
@@ -10366,7 +10369,7 @@
       </c>
       <c r="C306" s="13"/>
       <c r="D306" s="39"/>
-      <c r="E306" s="63">
+      <c r="E306" s="52">
         <f t="shared" si="7"/>
         <v>-11.708099999999984</v>
       </c>
@@ -10391,7 +10394,7 @@
       <c r="D307" s="39">
         <v>1</v>
       </c>
-      <c r="E307" s="63">
+      <c r="E307" s="52">
         <f t="shared" si="7"/>
         <v>-12.708099999999984</v>
       </c>
@@ -10416,7 +10419,7 @@
         <v>1.25</v>
       </c>
       <c r="D308" s="39"/>
-      <c r="E308" s="63">
+      <c r="E308" s="52">
         <f t="shared" si="7"/>
         <v>-11.458099999999984</v>
       </c>
@@ -10441,7 +10444,7 @@
       </c>
       <c r="C309" s="13"/>
       <c r="D309" s="39"/>
-      <c r="E309" s="63">
+      <c r="E309" s="52">
         <f t="shared" si="7"/>
         <v>-11.458099999999984</v>
       </c>
@@ -10466,7 +10469,7 @@
       </c>
       <c r="C310" s="13"/>
       <c r="D310" s="39"/>
-      <c r="E310" s="63">
+      <c r="E310" s="52">
         <f t="shared" si="7"/>
         <v>-11.458099999999984</v>
       </c>
@@ -10491,7 +10494,7 @@
       </c>
       <c r="C311" s="13"/>
       <c r="D311" s="39"/>
-      <c r="E311" s="63">
+      <c r="E311" s="52">
         <f t="shared" si="7"/>
         <v>-11.458099999999984</v>
       </c>
@@ -10518,7 +10521,7 @@
         <v>1.25</v>
       </c>
       <c r="D312" s="39"/>
-      <c r="E312" s="63">
+      <c r="E312" s="52">
         <f t="shared" si="7"/>
         <v>-10.208099999999984</v>
       </c>
@@ -10541,7 +10544,7 @@
       <c r="B313" s="20"/>
       <c r="C313" s="13"/>
       <c r="D313" s="39"/>
-      <c r="E313" s="63">
+      <c r="E313" s="52">
         <f t="shared" si="7"/>
         <v>-10.208099999999984</v>
       </c>
@@ -10566,7 +10569,7 @@
         <v>1.25</v>
       </c>
       <c r="D314" s="39"/>
-      <c r="E314" s="63">
+      <c r="E314" s="52">
         <f t="shared" si="7"/>
         <v>-8.958099999999984</v>
       </c>
@@ -10591,7 +10594,7 @@
       </c>
       <c r="C315" s="13"/>
       <c r="D315" s="39"/>
-      <c r="E315" s="63">
+      <c r="E315" s="52">
         <f t="shared" si="7"/>
         <v>-8.958099999999984</v>
       </c>
@@ -10616,7 +10619,7 @@
         <v>1.25</v>
       </c>
       <c r="D316" s="39"/>
-      <c r="E316" s="63">
+      <c r="E316" s="52">
         <f t="shared" si="7"/>
         <v>-7.708099999999984</v>
       </c>
@@ -10643,7 +10646,7 @@
       <c r="D317" s="39">
         <v>3</v>
       </c>
-      <c r="E317" s="63">
+      <c r="E317" s="52">
         <f t="shared" si="7"/>
         <v>-9.458099999999984</v>
       </c>
@@ -10666,7 +10669,7 @@
       </c>
       <c r="C318" s="13"/>
       <c r="D318" s="39"/>
-      <c r="E318" s="63">
+      <c r="E318" s="52">
         <f t="shared" si="7"/>
         <v>-9.458099999999984</v>
       </c>
@@ -10691,7 +10694,7 @@
       </c>
       <c r="C319" s="13"/>
       <c r="D319" s="39"/>
-      <c r="E319" s="63">
+      <c r="E319" s="52">
         <f t="shared" si="7"/>
         <v>-9.458099999999984</v>
       </c>
@@ -10716,7 +10719,7 @@
       </c>
       <c r="C320" s="13"/>
       <c r="D320" s="39"/>
-      <c r="E320" s="63">
+      <c r="E320" s="52">
         <f t="shared" si="7"/>
         <v>-9.458099999999984</v>
       </c>
@@ -10743,7 +10746,7 @@
         <v>1.25</v>
       </c>
       <c r="D321" s="39"/>
-      <c r="E321" s="63">
+      <c r="E321" s="52">
         <f t="shared" si="7"/>
         <v>-8.208099999999984</v>
       </c>
@@ -10770,7 +10773,7 @@
       <c r="D322" s="39">
         <v>10</v>
       </c>
-      <c r="E322" s="63">
+      <c r="E322" s="52">
         <f t="shared" si="7"/>
         <v>-16.958099999999984</v>
       </c>
@@ -10793,7 +10796,7 @@
       </c>
       <c r="C323" s="13"/>
       <c r="D323" s="39"/>
-      <c r="E323" s="63">
+      <c r="E323" s="52">
         <f t="shared" si="7"/>
         <v>-16.958099999999984</v>
       </c>
@@ -10818,7 +10821,7 @@
       <c r="D324" s="39">
         <v>2</v>
       </c>
-      <c r="E324" s="63">
+      <c r="E324" s="52">
         <f t="shared" si="7"/>
         <v>-18.958099999999984</v>
       </c>
@@ -10839,7 +10842,7 @@
       <c r="B325" s="20"/>
       <c r="C325" s="13"/>
       <c r="D325" s="39"/>
-      <c r="E325" s="63">
+      <c r="E325" s="52">
         <f t="shared" si="7"/>
         <v>-18.958099999999984</v>
       </c>
@@ -10864,7 +10867,7 @@
         <v>1.25</v>
       </c>
       <c r="D326" s="39"/>
-      <c r="E326" s="63">
+      <c r="E326" s="52">
         <f t="shared" si="7"/>
         <v>-17.708099999999984</v>
       </c>
@@ -10889,7 +10892,7 @@
       </c>
       <c r="C327" s="13"/>
       <c r="D327" s="39"/>
-      <c r="E327" s="63">
+      <c r="E327" s="52">
         <f t="shared" si="7"/>
         <v>-17.708099999999984</v>
       </c>
@@ -10914,7 +10917,7 @@
       </c>
       <c r="C328" s="13"/>
       <c r="D328" s="39"/>
-      <c r="E328" s="63">
+      <c r="E328" s="52">
         <f t="shared" si="7"/>
         <v>-17.708099999999984</v>
       </c>
@@ -10937,7 +10940,7 @@
       <c r="B329" s="20"/>
       <c r="C329" s="13"/>
       <c r="D329" s="39"/>
-      <c r="E329" s="63">
+      <c r="E329" s="52">
         <f t="shared" si="7"/>
         <v>-17.708099999999984</v>
       </c>
@@ -10962,7 +10965,7 @@
         <v>1.25</v>
       </c>
       <c r="D330" s="39"/>
-      <c r="E330" s="63">
+      <c r="E330" s="52">
         <f t="shared" si="7"/>
         <v>-16.458099999999984</v>
       </c>
@@ -10985,7 +10988,7 @@
       <c r="B331" s="20"/>
       <c r="C331" s="13"/>
       <c r="D331" s="39"/>
-      <c r="E331" s="63">
+      <c r="E331" s="52">
         <f t="shared" si="7"/>
         <v>-16.458099999999984</v>
       </c>
@@ -11010,7 +11013,7 @@
         <v>1.25</v>
       </c>
       <c r="D332" s="39"/>
-      <c r="E332" s="63">
+      <c r="E332" s="52">
         <f t="shared" si="7"/>
         <v>-15.208099999999984</v>
       </c>
@@ -11037,7 +11040,7 @@
       <c r="D333" s="39">
         <v>5</v>
       </c>
-      <c r="E333" s="63">
+      <c r="E333" s="52">
         <f t="shared" si="7"/>
         <v>-20.208099999999984</v>
       </c>
@@ -11060,7 +11063,7 @@
       <c r="B334" s="20"/>
       <c r="C334" s="13"/>
       <c r="D334" s="39"/>
-      <c r="E334" s="63">
+      <c r="E334" s="52">
         <f t="shared" si="7"/>
         <v>-20.208099999999984</v>
       </c>
@@ -11089,7 +11092,7 @@
       <c r="D335" s="39">
         <v>5</v>
       </c>
-      <c r="E335" s="63">
+      <c r="E335" s="52">
         <f t="shared" si="7"/>
         <v>-23.958099999999984</v>
       </c>
@@ -11110,7 +11113,7 @@
       <c r="B336" s="20"/>
       <c r="C336" s="13"/>
       <c r="D336" s="39"/>
-      <c r="E336" s="63">
+      <c r="E336" s="52">
         <f t="shared" si="7"/>
         <v>-23.958099999999984</v>
       </c>
@@ -11135,7 +11138,7 @@
         <v>1.25</v>
       </c>
       <c r="D337" s="39"/>
-      <c r="E337" s="63">
+      <c r="E337" s="52">
         <f t="shared" si="7"/>
         <v>-22.708099999999984</v>
       </c>
@@ -11162,7 +11165,7 @@
       <c r="D338" s="39">
         <v>1</v>
       </c>
-      <c r="E338" s="63">
+      <c r="E338" s="52">
         <f t="shared" si="7"/>
         <v>-23.708099999999984</v>
       </c>
@@ -11183,7 +11186,7 @@
       <c r="B339" s="20"/>
       <c r="C339" s="13"/>
       <c r="D339" s="39"/>
-      <c r="E339" s="63">
+      <c r="E339" s="52">
         <f t="shared" si="7"/>
         <v>-23.708099999999984</v>
       </c>
@@ -11208,7 +11211,7 @@
         <v>1.25</v>
       </c>
       <c r="D340" s="39"/>
-      <c r="E340" s="63">
+      <c r="E340" s="52">
         <f t="shared" si="7"/>
         <v>-22.458099999999984</v>
       </c>
@@ -11231,7 +11234,7 @@
       <c r="B341" s="20"/>
       <c r="C341" s="13"/>
       <c r="D341" s="39"/>
-      <c r="E341" s="63">
+      <c r="E341" s="52">
         <f t="shared" si="7"/>
         <v>-22.458099999999984</v>
       </c>
@@ -11256,7 +11259,7 @@
         <v>1.25</v>
       </c>
       <c r="D342" s="39"/>
-      <c r="E342" s="63">
+      <c r="E342" s="52">
         <f t="shared" si="7"/>
         <v>-21.208099999999984</v>
       </c>
@@ -11279,7 +11282,7 @@
       </c>
       <c r="C343" s="13"/>
       <c r="D343" s="39"/>
-      <c r="E343" s="63">
+      <c r="E343" s="52">
         <f t="shared" si="7"/>
         <v>-21.208099999999984</v>
       </c>
@@ -11302,7 +11305,7 @@
       </c>
       <c r="C344" s="13"/>
       <c r="D344" s="39"/>
-      <c r="E344" s="63">
+      <c r="E344" s="52">
         <f t="shared" si="7"/>
         <v>-21.208099999999984</v>
       </c>
@@ -11321,7 +11324,7 @@
       <c r="B345" s="20"/>
       <c r="C345" s="13"/>
       <c r="D345" s="39"/>
-      <c r="E345" s="63">
+      <c r="E345" s="52">
         <f t="shared" si="7"/>
         <v>-21.208099999999984</v>
       </c>
@@ -11346,7 +11349,7 @@
         <v>1.25</v>
       </c>
       <c r="D346" s="39"/>
-      <c r="E346" s="63">
+      <c r="E346" s="52">
         <f t="shared" si="7"/>
         <v>-19.958099999999984</v>
       </c>
@@ -11371,7 +11374,7 @@
       <c r="D347" s="39">
         <v>4</v>
       </c>
-      <c r="E347" s="63">
+      <c r="E347" s="52">
         <f t="shared" si="7"/>
         <v>-23.958099999999984</v>
       </c>
@@ -11396,7 +11399,7 @@
         <v>1.25</v>
       </c>
       <c r="D348" s="39"/>
-      <c r="E348" s="63">
+      <c r="E348" s="52">
         <f t="shared" si="7"/>
         <v>-22.708099999999984</v>
       </c>
@@ -11421,7 +11424,7 @@
         <v>1.25</v>
       </c>
       <c r="D349" s="39"/>
-      <c r="E349" s="63">
+      <c r="E349" s="52">
         <f t="shared" si="7"/>
         <v>-21.458099999999984</v>
       </c>
@@ -11448,7 +11451,7 @@
       <c r="D350" s="39">
         <v>4</v>
       </c>
-      <c r="E350" s="63">
+      <c r="E350" s="52">
         <f t="shared" si="7"/>
         <v>-25.458099999999984</v>
       </c>
@@ -11471,7 +11474,7 @@
       </c>
       <c r="C351" s="13"/>
       <c r="D351" s="39"/>
-      <c r="E351" s="63">
+      <c r="E351" s="52">
         <f t="shared" si="7"/>
         <v>-25.458099999999984</v>
       </c>
@@ -11496,7 +11499,7 @@
       </c>
       <c r="C352" s="13"/>
       <c r="D352" s="39"/>
-      <c r="E352" s="63">
+      <c r="E352" s="52">
         <f t="shared" si="7"/>
         <v>-25.458099999999984</v>
       </c>
@@ -11519,7 +11522,7 @@
       <c r="B353" s="20"/>
       <c r="C353" s="13"/>
       <c r="D353" s="39"/>
-      <c r="E353" s="63">
+      <c r="E353" s="52">
         <f t="shared" si="7"/>
         <v>-25.458099999999984</v>
       </c>
@@ -11544,7 +11547,7 @@
         <v>1.25</v>
       </c>
       <c r="D354" s="39"/>
-      <c r="E354" s="63">
+      <c r="E354" s="52">
         <f t="shared" si="7"/>
         <v>-24.208099999999984</v>
       </c>
@@ -11571,7 +11574,7 @@
       <c r="D355" s="39">
         <v>4</v>
       </c>
-      <c r="E355" s="63">
+      <c r="E355" s="52">
         <f t="shared" ref="E355:E418" si="8">SUM(C355,E354)-D355</f>
         <v>-28.208099999999984</v>
       </c>
@@ -11596,7 +11599,7 @@
       <c r="D356" s="39">
         <v>0.5</v>
       </c>
-      <c r="E356" s="63">
+      <c r="E356" s="52">
         <f t="shared" si="8"/>
         <v>-28.708099999999984</v>
       </c>
@@ -11621,7 +11624,7 @@
       </c>
       <c r="C357" s="13"/>
       <c r="D357" s="39"/>
-      <c r="E357" s="63">
+      <c r="E357" s="52">
         <f t="shared" si="8"/>
         <v>-28.708099999999984</v>
       </c>
@@ -11646,7 +11649,7 @@
       <c r="D358" s="39">
         <v>2</v>
       </c>
-      <c r="E358" s="63">
+      <c r="E358" s="52">
         <f t="shared" si="8"/>
         <v>-30.708099999999984</v>
       </c>
@@ -11667,7 +11670,7 @@
       <c r="B359" s="20"/>
       <c r="C359" s="13"/>
       <c r="D359" s="39"/>
-      <c r="E359" s="63">
+      <c r="E359" s="52">
         <f t="shared" si="8"/>
         <v>-30.708099999999984</v>
       </c>
@@ -11690,7 +11693,7 @@
         <v>1.25</v>
       </c>
       <c r="D360" s="39"/>
-      <c r="E360" s="63">
+      <c r="E360" s="52">
         <f t="shared" si="8"/>
         <v>-29.458099999999984</v>
       </c>
@@ -11717,7 +11720,7 @@
       <c r="D361" s="39">
         <v>2</v>
       </c>
-      <c r="E361" s="63">
+      <c r="E361" s="52">
         <f t="shared" si="8"/>
         <v>-30.208099999999984</v>
       </c>
@@ -11740,7 +11743,7 @@
       </c>
       <c r="C362" s="13"/>
       <c r="D362" s="39"/>
-      <c r="E362" s="63">
+      <c r="E362" s="52">
         <f t="shared" si="8"/>
         <v>-30.208099999999984</v>
       </c>
@@ -11765,7 +11768,7 @@
       </c>
       <c r="C363" s="13"/>
       <c r="D363" s="39"/>
-      <c r="E363" s="63">
+      <c r="E363" s="52">
         <f t="shared" si="8"/>
         <v>-30.208099999999984</v>
       </c>
@@ -11788,7 +11791,7 @@
       <c r="B364" s="20"/>
       <c r="C364" s="13"/>
       <c r="D364" s="39"/>
-      <c r="E364" s="63">
+      <c r="E364" s="52">
         <f t="shared" si="8"/>
         <v>-30.208099999999984</v>
       </c>
@@ -11815,7 +11818,7 @@
       <c r="D365" s="39">
         <v>3</v>
       </c>
-      <c r="E365" s="63">
+      <c r="E365" s="52">
         <f t="shared" si="8"/>
         <v>-31.958099999999984</v>
       </c>
@@ -11840,7 +11843,7 @@
         <v>1.25</v>
       </c>
       <c r="D366" s="39"/>
-      <c r="E366" s="63">
+      <c r="E366" s="52">
         <f t="shared" si="8"/>
         <v>-30.708099999999984</v>
       </c>
@@ -11861,7 +11864,7 @@
       <c r="B367" s="20"/>
       <c r="C367" s="13"/>
       <c r="D367" s="39"/>
-      <c r="E367" s="63">
+      <c r="E367" s="52">
         <f t="shared" si="8"/>
         <v>-30.708099999999984</v>
       </c>
@@ -11888,7 +11891,7 @@
         <v>1.25</v>
       </c>
       <c r="D368" s="39"/>
-      <c r="E368" s="63">
+      <c r="E368" s="52">
         <f t="shared" si="8"/>
         <v>-29.458099999999984</v>
       </c>
@@ -11913,7 +11916,7 @@
       </c>
       <c r="C369" s="13"/>
       <c r="D369" s="39"/>
-      <c r="E369" s="63">
+      <c r="E369" s="52">
         <f t="shared" si="8"/>
         <v>-29.458099999999984</v>
       </c>
@@ -11938,7 +11941,7 @@
       <c r="D370" s="39">
         <v>1</v>
       </c>
-      <c r="E370" s="63">
+      <c r="E370" s="52">
         <f t="shared" si="8"/>
         <v>-30.458099999999984</v>
       </c>
@@ -11961,7 +11964,7 @@
       </c>
       <c r="C371" s="13"/>
       <c r="D371" s="39"/>
-      <c r="E371" s="63">
+      <c r="E371" s="52">
         <f t="shared" si="8"/>
         <v>-30.458099999999984</v>
       </c>
@@ -11984,7 +11987,7 @@
       <c r="B372" s="20"/>
       <c r="C372" s="13"/>
       <c r="D372" s="39"/>
-      <c r="E372" s="63">
+      <c r="E372" s="52">
         <f t="shared" si="8"/>
         <v>-30.458099999999984</v>
       </c>
@@ -12009,7 +12012,7 @@
         <v>1.25</v>
       </c>
       <c r="D373" s="39"/>
-      <c r="E373" s="63">
+      <c r="E373" s="52">
         <f t="shared" si="8"/>
         <v>-29.208099999999984</v>
       </c>
@@ -12032,7 +12035,7 @@
       <c r="B374" s="20"/>
       <c r="C374" s="13"/>
       <c r="D374" s="39"/>
-      <c r="E374" s="63">
+      <c r="E374" s="52">
         <f t="shared" si="8"/>
         <v>-29.208099999999984</v>
       </c>
@@ -12059,7 +12062,7 @@
       <c r="D375" s="39">
         <v>3</v>
       </c>
-      <c r="E375" s="63">
+      <c r="E375" s="52">
         <f t="shared" si="8"/>
         <v>-30.958099999999984</v>
       </c>
@@ -12082,7 +12085,7 @@
       </c>
       <c r="C376" s="13"/>
       <c r="D376" s="39"/>
-      <c r="E376" s="63">
+      <c r="E376" s="52">
         <f t="shared" si="8"/>
         <v>-30.958099999999984</v>
       </c>
@@ -12107,7 +12110,7 @@
       </c>
       <c r="C377" s="13"/>
       <c r="D377" s="39"/>
-      <c r="E377" s="63">
+      <c r="E377" s="52">
         <f t="shared" si="8"/>
         <v>-30.958099999999984</v>
       </c>
@@ -12130,7 +12133,7 @@
       </c>
       <c r="C378" s="13"/>
       <c r="D378" s="39"/>
-      <c r="E378" s="63">
+      <c r="E378" s="52">
         <f t="shared" si="8"/>
         <v>-30.958099999999984</v>
       </c>
@@ -12151,7 +12154,7 @@
       <c r="B379" s="20"/>
       <c r="C379" s="13"/>
       <c r="D379" s="39"/>
-      <c r="E379" s="63">
+      <c r="E379" s="52">
         <f t="shared" si="8"/>
         <v>-30.958099999999984</v>
       </c>
@@ -12174,7 +12177,7 @@
         <v>1.25</v>
       </c>
       <c r="D380" s="39"/>
-      <c r="E380" s="63">
+      <c r="E380" s="52">
         <f t="shared" si="8"/>
         <v>-29.708099999999984</v>
       </c>
@@ -12199,7 +12202,7 @@
         <v>1.25</v>
       </c>
       <c r="D381" s="39"/>
-      <c r="E381" s="63">
+      <c r="E381" s="52">
         <f t="shared" si="8"/>
         <v>-28.458099999999984</v>
       </c>
@@ -12226,7 +12229,7 @@
       <c r="D382" s="39">
         <v>1.0309999999999999</v>
       </c>
-      <c r="E382" s="63">
+      <c r="E382" s="52">
         <f t="shared" si="8"/>
         <v>-29.489099999999983</v>
       </c>
@@ -12251,7 +12254,7 @@
         <v>1.25</v>
       </c>
       <c r="D383" s="39"/>
-      <c r="E383" s="63">
+      <c r="E383" s="52">
         <f t="shared" si="8"/>
         <v>-28.239099999999983</v>
       </c>
@@ -12276,7 +12279,7 @@
       </c>
       <c r="C384" s="13"/>
       <c r="D384" s="39"/>
-      <c r="E384" s="63">
+      <c r="E384" s="52">
         <f t="shared" si="8"/>
         <v>-28.239099999999983</v>
       </c>
@@ -12303,7 +12306,7 @@
       <c r="D385" s="39">
         <v>0.11000000000000001</v>
       </c>
-      <c r="E385" s="63">
+      <c r="E385" s="52">
         <f t="shared" si="8"/>
         <v>-28.349099999999982</v>
       </c>
@@ -12322,7 +12325,7 @@
       <c r="B386" s="20"/>
       <c r="C386" s="13"/>
       <c r="D386" s="39"/>
-      <c r="E386" s="63">
+      <c r="E386" s="52">
         <f t="shared" si="8"/>
         <v>-28.349099999999982</v>
       </c>
@@ -12347,7 +12350,7 @@
         <v>1.25</v>
       </c>
       <c r="D387" s="39"/>
-      <c r="E387" s="63">
+      <c r="E387" s="52">
         <f t="shared" si="8"/>
         <v>-27.099099999999982</v>
       </c>
@@ -12374,7 +12377,7 @@
       <c r="D388" s="39">
         <v>1</v>
       </c>
-      <c r="E388" s="63">
+      <c r="E388" s="52">
         <f t="shared" si="8"/>
         <v>-28.099099999999982</v>
       </c>
@@ -12399,7 +12402,7 @@
       <c r="D389" s="39">
         <v>0.15400000000000003</v>
       </c>
-      <c r="E389" s="63">
+      <c r="E389" s="52">
         <f t="shared" si="8"/>
         <v>-28.253099999999982</v>
       </c>
@@ -12424,7 +12427,7 @@
         <v>1.25</v>
       </c>
       <c r="D390" s="39"/>
-      <c r="E390" s="63">
+      <c r="E390" s="52">
         <f t="shared" si="8"/>
         <v>-27.003099999999982</v>
       </c>
@@ -12451,7 +12454,7 @@
       <c r="D391" s="39">
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="E391" s="63">
+      <c r="E391" s="52">
         <f t="shared" si="8"/>
         <v>-27.099099999999982</v>
       </c>
@@ -12476,7 +12479,7 @@
         <v>1.25</v>
       </c>
       <c r="D392" s="39"/>
-      <c r="E392" s="63">
+      <c r="E392" s="52">
         <f t="shared" si="8"/>
         <v>-25.849099999999982</v>
       </c>
@@ -12501,7 +12504,7 @@
       </c>
       <c r="C393" s="13"/>
       <c r="D393" s="39"/>
-      <c r="E393" s="63">
+      <c r="E393" s="52">
         <f t="shared" si="8"/>
         <v>-25.849099999999982</v>
       </c>
@@ -12528,7 +12531,7 @@
       <c r="D394" s="39">
         <v>0.18700000000000003</v>
       </c>
-      <c r="E394" s="63">
+      <c r="E394" s="52">
         <f t="shared" si="8"/>
         <v>-26.036099999999983</v>
       </c>
@@ -12553,7 +12556,7 @@
         <v>1.25</v>
       </c>
       <c r="D395" s="39"/>
-      <c r="E395" s="63">
+      <c r="E395" s="52">
         <f t="shared" si="8"/>
         <v>-24.786099999999983</v>
       </c>
@@ -12580,7 +12583,7 @@
       <c r="D396" s="39">
         <v>0.60599999999999998</v>
       </c>
-      <c r="E396" s="63">
+      <c r="E396" s="52">
         <f t="shared" si="8"/>
         <v>-25.392099999999985</v>
       </c>
@@ -12607,7 +12610,7 @@
       <c r="D397" s="39">
         <v>2</v>
       </c>
-      <c r="E397" s="63">
+      <c r="E397" s="52">
         <f t="shared" si="8"/>
         <v>-26.142099999999985</v>
       </c>
@@ -12630,7 +12633,7 @@
       </c>
       <c r="C398" s="13"/>
       <c r="D398" s="39"/>
-      <c r="E398" s="63">
+      <c r="E398" s="52">
         <f t="shared" si="8"/>
         <v>-26.142099999999985</v>
       </c>
@@ -12657,7 +12660,7 @@
       <c r="D399" s="39">
         <v>5.000000000000001E-2</v>
       </c>
-      <c r="E399" s="63">
+      <c r="E399" s="52">
         <f t="shared" si="8"/>
         <v>-26.192099999999986</v>
       </c>
@@ -12684,7 +12687,7 @@
       <c r="D400" s="39">
         <v>1</v>
       </c>
-      <c r="E400" s="63">
+      <c r="E400" s="52">
         <f t="shared" si="8"/>
         <v>-25.942099999999986</v>
       </c>
@@ -12709,7 +12712,7 @@
       <c r="D401" s="39">
         <v>1</v>
       </c>
-      <c r="E401" s="63">
+      <c r="E401" s="52">
         <f t="shared" si="8"/>
         <v>-26.942099999999986</v>
       </c>
@@ -12732,7 +12735,7 @@
       </c>
       <c r="C402" s="13"/>
       <c r="D402" s="39"/>
-      <c r="E402" s="63">
+      <c r="E402" s="52">
         <f t="shared" si="8"/>
         <v>-26.942099999999986</v>
       </c>
@@ -12759,7 +12762,7 @@
       <c r="D403" s="39">
         <v>0.04</v>
       </c>
-      <c r="E403" s="63">
+      <c r="E403" s="52">
         <f t="shared" si="8"/>
         <v>-26.982099999999985</v>
       </c>
@@ -12780,7 +12783,7 @@
       <c r="B404" s="20"/>
       <c r="C404" s="13"/>
       <c r="D404" s="39"/>
-      <c r="E404" s="63">
+      <c r="E404" s="52">
         <f t="shared" si="8"/>
         <v>-26.982099999999985</v>
       </c>
@@ -12807,7 +12810,7 @@
         <v>1.25</v>
       </c>
       <c r="D405" s="39"/>
-      <c r="E405" s="63">
+      <c r="E405" s="52">
         <f t="shared" si="8"/>
         <v>-25.732099999999985</v>
       </c>
@@ -12830,7 +12833,7 @@
       </c>
       <c r="C406" s="13"/>
       <c r="D406" s="39"/>
-      <c r="E406" s="63">
+      <c r="E406" s="52">
         <f t="shared" si="8"/>
         <v>-25.732099999999985</v>
       </c>
@@ -12855,7 +12858,7 @@
       <c r="D407" s="39">
         <v>1</v>
       </c>
-      <c r="E407" s="63">
+      <c r="E407" s="52">
         <f t="shared" si="8"/>
         <v>-26.732099999999985</v>
       </c>
@@ -12880,7 +12883,7 @@
       <c r="D408" s="39">
         <v>0.66900000000000004</v>
       </c>
-      <c r="E408" s="63">
+      <c r="E408" s="52">
         <f t="shared" si="8"/>
         <v>-27.401099999999985</v>
       </c>
@@ -12907,7 +12910,7 @@
       <c r="D409" s="39">
         <v>1.5</v>
       </c>
-      <c r="E409" s="63">
+      <c r="E409" s="52">
         <f t="shared" si="8"/>
         <v>-27.651099999999985</v>
       </c>
@@ -12932,7 +12935,7 @@
       </c>
       <c r="C410" s="13"/>
       <c r="D410" s="39"/>
-      <c r="E410" s="63">
+      <c r="E410" s="52">
         <f t="shared" si="8"/>
         <v>-27.651099999999985</v>
       </c>
@@ -12957,7 +12960,7 @@
       <c r="D411" s="39">
         <v>0.13700000000000001</v>
       </c>
-      <c r="E411" s="63">
+      <c r="E411" s="52">
         <f t="shared" si="8"/>
         <v>-27.788099999999986</v>
       </c>
@@ -12984,7 +12987,7 @@
       <c r="D412" s="39">
         <v>1.56</v>
       </c>
-      <c r="E412" s="63">
+      <c r="E412" s="52">
         <f t="shared" si="8"/>
         <v>-28.098099999999985</v>
       </c>
@@ -13009,7 +13012,7 @@
         <v>1.25</v>
       </c>
       <c r="D413" s="39"/>
-      <c r="E413" s="63">
+      <c r="E413" s="52">
         <f t="shared" si="8"/>
         <v>-26.848099999999985</v>
       </c>
@@ -13036,7 +13039,7 @@
       <c r="D414" s="39">
         <v>1</v>
       </c>
-      <c r="E414" s="63">
+      <c r="E414" s="52">
         <f t="shared" si="8"/>
         <v>-27.848099999999985</v>
       </c>
@@ -13059,7 +13062,7 @@
       </c>
       <c r="C415" s="13"/>
       <c r="D415" s="39"/>
-      <c r="E415" s="63">
+      <c r="E415" s="52">
         <f t="shared" si="8"/>
         <v>-27.848099999999985</v>
       </c>
@@ -13084,7 +13087,7 @@
       </c>
       <c r="C416" s="13"/>
       <c r="D416" s="39"/>
-      <c r="E416" s="63">
+      <c r="E416" s="52">
         <f t="shared" si="8"/>
         <v>-27.848099999999985</v>
       </c>
@@ -13109,7 +13112,7 @@
       <c r="D417" s="39">
         <v>1.585</v>
       </c>
-      <c r="E417" s="63">
+      <c r="E417" s="52">
         <f t="shared" si="8"/>
         <v>-29.433099999999985</v>
       </c>
@@ -13134,7 +13137,7 @@
         <v>1.25</v>
       </c>
       <c r="D418" s="39"/>
-      <c r="E418" s="63">
+      <c r="E418" s="52">
         <f t="shared" si="8"/>
         <v>-28.183099999999985</v>
       </c>
@@ -13157,7 +13160,7 @@
       </c>
       <c r="C419" s="13"/>
       <c r="D419" s="39"/>
-      <c r="E419" s="63">
+      <c r="E419" s="52">
         <f t="shared" ref="E419:E482" si="9">SUM(C419,E418)-D419</f>
         <v>-28.183099999999985</v>
       </c>
@@ -13184,7 +13187,7 @@
       <c r="D420" s="39">
         <v>1.9000000000000003E-2</v>
       </c>
-      <c r="E420" s="63">
+      <c r="E420" s="52">
         <f t="shared" si="9"/>
         <v>-28.202099999999984</v>
       </c>
@@ -13209,7 +13212,7 @@
         <v>1.25</v>
       </c>
       <c r="D421" s="39"/>
-      <c r="E421" s="63">
+      <c r="E421" s="52">
         <f t="shared" si="9"/>
         <v>-26.952099999999984</v>
       </c>
@@ -13234,7 +13237,7 @@
       </c>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
-      <c r="E422" s="63">
+      <c r="E422" s="52">
         <f t="shared" si="9"/>
         <v>-26.952099999999984</v>
       </c>
@@ -13261,7 +13264,7 @@
       <c r="D423" s="39">
         <v>0.2</v>
       </c>
-      <c r="E423" s="63">
+      <c r="E423" s="52">
         <f t="shared" si="9"/>
         <v>-27.152099999999983</v>
       </c>
@@ -13288,7 +13291,7 @@
       <c r="D424" s="39">
         <v>1</v>
       </c>
-      <c r="E424" s="63">
+      <c r="E424" s="52">
         <f t="shared" si="9"/>
         <v>-26.902099999999983</v>
       </c>
@@ -13315,7 +13318,7 @@
       <c r="D425" s="39">
         <v>1</v>
       </c>
-      <c r="E425" s="63">
+      <c r="E425" s="52">
         <f t="shared" si="9"/>
         <v>-27.902099999999983</v>
       </c>
@@ -13338,7 +13341,7 @@
       </c>
       <c r="C426" s="13"/>
       <c r="D426" s="39"/>
-      <c r="E426" s="63">
+      <c r="E426" s="52">
         <f t="shared" si="9"/>
         <v>-27.902099999999983</v>
       </c>
@@ -13363,7 +13366,7 @@
       <c r="D427" s="39">
         <v>0.56699999999999995</v>
       </c>
-      <c r="E427" s="63">
+      <c r="E427" s="52">
         <f t="shared" si="9"/>
         <v>-28.469099999999983</v>
       </c>
@@ -13390,7 +13393,7 @@
       <c r="D428" s="39">
         <v>8.3000000000000018E-2</v>
       </c>
-      <c r="E428" s="63">
+      <c r="E428" s="52">
         <f t="shared" si="9"/>
         <v>-27.302099999999982</v>
       </c>
@@ -13415,7 +13418,7 @@
         <v>1.25</v>
       </c>
       <c r="D429" s="39"/>
-      <c r="E429" s="63">
+      <c r="E429" s="52">
         <f t="shared" si="9"/>
         <v>-26.052099999999982</v>
       </c>
@@ -13440,7 +13443,7 @@
       <c r="D430" s="39">
         <v>0.76900000000000002</v>
       </c>
-      <c r="E430" s="63">
+      <c r="E430" s="52">
         <f t="shared" si="9"/>
         <v>-26.82109999999998</v>
       </c>
@@ -13465,7 +13468,7 @@
         <v>1.25</v>
       </c>
       <c r="D431" s="39"/>
-      <c r="E431" s="63">
+      <c r="E431" s="52">
         <f t="shared" si="9"/>
         <v>-25.57109999999998</v>
       </c>
@@ -13492,7 +13495,7 @@
       <c r="D432" s="39">
         <v>1</v>
       </c>
-      <c r="E432" s="63">
+      <c r="E432" s="52">
         <f t="shared" si="9"/>
         <v>-26.57109999999998</v>
       </c>
@@ -13517,7 +13520,7 @@
       <c r="D433" s="39">
         <v>0.25</v>
       </c>
-      <c r="E433" s="63">
+      <c r="E433" s="52">
         <f t="shared" si="9"/>
         <v>-26.82109999999998</v>
       </c>
@@ -13542,7 +13545,7 @@
         <v>1.25</v>
       </c>
       <c r="D434" s="39"/>
-      <c r="E434" s="63">
+      <c r="E434" s="52">
         <f t="shared" si="9"/>
         <v>-25.57109999999998</v>
       </c>
@@ -13569,7 +13572,7 @@
       <c r="D435" s="39">
         <v>0.14800000000000002</v>
       </c>
-      <c r="E435" s="63">
+      <c r="E435" s="52">
         <f t="shared" si="9"/>
         <v>-25.71909999999998</v>
       </c>
@@ -13596,7 +13599,7 @@
       <c r="D436" s="39">
         <v>0.72899999999999998</v>
       </c>
-      <c r="E436" s="63">
+      <c r="E436" s="52">
         <f t="shared" si="9"/>
         <v>-25.198099999999979</v>
       </c>
@@ -13617,7 +13620,7 @@
       <c r="B437" s="20"/>
       <c r="C437" s="13"/>
       <c r="D437" s="39"/>
-      <c r="E437" s="63">
+      <c r="E437" s="52">
         <f t="shared" si="9"/>
         <v>-25.198099999999979</v>
       </c>
@@ -13644,7 +13647,7 @@
         <v>1.25</v>
       </c>
       <c r="D438" s="39"/>
-      <c r="E438" s="63">
+      <c r="E438" s="52">
         <f t="shared" si="9"/>
         <v>-23.948099999999979</v>
       </c>
@@ -13671,7 +13674,7 @@
       <c r="D439" s="39">
         <v>1</v>
       </c>
-      <c r="E439" s="63">
+      <c r="E439" s="52">
         <f t="shared" si="9"/>
         <v>-24.948099999999979</v>
       </c>
@@ -13694,7 +13697,7 @@
       </c>
       <c r="C440" s="13"/>
       <c r="D440" s="39"/>
-      <c r="E440" s="63">
+      <c r="E440" s="52">
         <f t="shared" si="9"/>
         <v>-24.948099999999979</v>
       </c>
@@ -13721,7 +13724,7 @@
       <c r="D441" s="39">
         <v>0.77700000000000002</v>
       </c>
-      <c r="E441" s="63">
+      <c r="E441" s="52">
         <f t="shared" si="9"/>
         <v>-25.72509999999998</v>
       </c>
@@ -13748,7 +13751,7 @@
       <c r="D442" s="39">
         <v>0.70599999999999996</v>
       </c>
-      <c r="E442" s="63">
+      <c r="E442" s="52">
         <f t="shared" si="9"/>
         <v>-25.181099999999979</v>
       </c>
@@ -13773,7 +13776,7 @@
         <v>1.25</v>
       </c>
       <c r="D443" s="39"/>
-      <c r="E443" s="63">
+      <c r="E443" s="52">
         <f t="shared" si="9"/>
         <v>-23.931099999999979</v>
       </c>
@@ -13798,7 +13801,7 @@
       <c r="D444" s="39">
         <v>0.3</v>
       </c>
-      <c r="E444" s="63">
+      <c r="E444" s="52">
         <f t="shared" si="9"/>
         <v>-24.23109999999998</v>
       </c>
@@ -13825,7 +13828,7 @@
       <c r="D445" s="39">
         <v>1</v>
       </c>
-      <c r="E445" s="63">
+      <c r="E445" s="52">
         <f t="shared" si="9"/>
         <v>-23.98109999999998</v>
       </c>
@@ -13848,7 +13851,7 @@
       </c>
       <c r="C446" s="13"/>
       <c r="D446" s="39"/>
-      <c r="E446" s="63">
+      <c r="E446" s="52">
         <f t="shared" si="9"/>
         <v>-23.98109999999998</v>
       </c>
@@ -13875,7 +13878,7 @@
       <c r="D447" s="39">
         <v>0.23300000000000001</v>
       </c>
-      <c r="E447" s="63">
+      <c r="E447" s="52">
         <f t="shared" si="9"/>
         <v>-24.214099999999981</v>
       </c>
@@ -13902,7 +13905,7 @@
       <c r="D448" s="39">
         <v>0.53100000000000003</v>
       </c>
-      <c r="E448" s="63">
+      <c r="E448" s="52">
         <f t="shared" si="9"/>
         <v>-23.495099999999979</v>
       </c>
@@ -13925,7 +13928,7 @@
         <v>1.25</v>
       </c>
       <c r="D449" s="39"/>
-      <c r="E449" s="63">
+      <c r="E449" s="52">
         <f t="shared" si="9"/>
         <v>-22.245099999999979</v>
       </c>
@@ -13950,7 +13953,7 @@
         <v>1.25</v>
       </c>
       <c r="D450" s="39"/>
-      <c r="E450" s="63">
+      <c r="E450" s="52">
         <f t="shared" si="9"/>
         <v>-20.995099999999979</v>
       </c>
@@ -13977,7 +13980,7 @@
       <c r="D451" s="39">
         <v>2.9000000000000012E-2</v>
       </c>
-      <c r="E451" s="63">
+      <c r="E451" s="52">
         <f t="shared" si="9"/>
         <v>-21.024099999999979</v>
       </c>
@@ -14004,7 +14007,7 @@
       <c r="D452" s="39">
         <v>1</v>
       </c>
-      <c r="E452" s="63">
+      <c r="E452" s="52">
         <f t="shared" si="9"/>
         <v>-20.774099999999979</v>
       </c>
@@ -14029,7 +14032,7 @@
       <c r="D453" s="39">
         <v>1</v>
       </c>
-      <c r="E453" s="63">
+      <c r="E453" s="52">
         <f t="shared" si="9"/>
         <v>-21.774099999999979</v>
       </c>
@@ -14054,7 +14057,7 @@
       <c r="D454" s="39">
         <v>0.52100000000000002</v>
       </c>
-      <c r="E454" s="63">
+      <c r="E454" s="52">
         <f t="shared" si="9"/>
         <v>-22.29509999999998</v>
       </c>
@@ -14079,7 +14082,7 @@
         <v>1.25</v>
       </c>
       <c r="D455" s="39"/>
-      <c r="E455" s="63">
+      <c r="E455" s="52">
         <f t="shared" si="9"/>
         <v>-21.04509999999998</v>
       </c>
@@ -14106,7 +14109,7 @@
       <c r="D456" s="39">
         <v>0.04</v>
       </c>
-      <c r="E456" s="63">
+      <c r="E456" s="52">
         <f t="shared" si="9"/>
         <v>-21.085099999999979</v>
       </c>
@@ -14133,7 +14136,7 @@
       <c r="D457" s="39">
         <v>0.51</v>
       </c>
-      <c r="E457" s="63">
+      <c r="E457" s="52">
         <f t="shared" si="9"/>
         <v>-20.345099999999981</v>
       </c>
@@ -14160,7 +14163,7 @@
       <c r="D458" s="39">
         <v>1</v>
       </c>
-      <c r="E458" s="63">
+      <c r="E458" s="52">
         <f t="shared" si="9"/>
         <v>-20.095099999999981</v>
       </c>
@@ -14185,7 +14188,7 @@
       <c r="D459" s="39">
         <v>1</v>
       </c>
-      <c r="E459" s="63">
+      <c r="E459" s="52">
         <f t="shared" si="9"/>
         <v>-21.095099999999981</v>
       </c>
@@ -14210,7 +14213,7 @@
       <c r="D460" s="39">
         <v>1.9000000000000003E-2</v>
       </c>
-      <c r="E460" s="63">
+      <c r="E460" s="52">
         <f t="shared" si="9"/>
         <v>-21.114099999999979</v>
       </c>
@@ -14235,7 +14238,7 @@
         <v>1.25</v>
       </c>
       <c r="D461" s="39"/>
-      <c r="E461" s="63">
+      <c r="E461" s="52">
         <f t="shared" si="9"/>
         <v>-19.864099999999979</v>
       </c>
@@ -14262,7 +14265,7 @@
       <c r="D462" s="39">
         <v>1.4830000000000001</v>
       </c>
-      <c r="E462" s="63">
+      <c r="E462" s="52">
         <f t="shared" si="9"/>
         <v>-21.34709999999998</v>
       </c>
@@ -14283,7 +14286,7 @@
       <c r="B463" s="20"/>
       <c r="C463" s="13"/>
       <c r="D463" s="39"/>
-      <c r="E463" s="63">
+      <c r="E463" s="52">
         <f t="shared" si="9"/>
         <v>-21.34709999999998</v>
       </c>
@@ -14310,7 +14313,7 @@
         <v>1.25</v>
       </c>
       <c r="D464" s="39"/>
-      <c r="E464" s="63">
+      <c r="E464" s="52">
         <f t="shared" si="9"/>
         <v>-20.09709999999998</v>
       </c>
@@ -14337,7 +14340,7 @@
       <c r="D465" s="39">
         <v>0.17900000000000002</v>
       </c>
-      <c r="E465" s="63">
+      <c r="E465" s="52">
         <f t="shared" si="9"/>
         <v>-20.276099999999978</v>
       </c>
@@ -14364,7 +14367,7 @@
       <c r="D466" s="39">
         <v>0.11000000000000001</v>
       </c>
-      <c r="E466" s="63">
+      <c r="E466" s="52">
         <f t="shared" si="9"/>
         <v>-19.136099999999978</v>
       </c>
@@ -14391,7 +14394,7 @@
       <c r="D467" s="39">
         <v>0.69799999999999995</v>
       </c>
-      <c r="E467" s="63">
+      <c r="E467" s="52">
         <f t="shared" si="9"/>
         <v>-18.584099999999978</v>
       </c>
@@ -14416,7 +14419,7 @@
         <v>1.25</v>
       </c>
       <c r="D468" s="39"/>
-      <c r="E468" s="63">
+      <c r="E468" s="52">
         <f t="shared" si="9"/>
         <v>-17.334099999999978</v>
       </c>
@@ -14443,7 +14446,7 @@
       <c r="D469" s="39">
         <v>3</v>
       </c>
-      <c r="E469" s="63">
+      <c r="E469" s="52">
         <f t="shared" si="9"/>
         <v>-20.334099999999978</v>
       </c>
@@ -14468,7 +14471,7 @@
       <c r="D470" s="39">
         <v>1</v>
       </c>
-      <c r="E470" s="63">
+      <c r="E470" s="52">
         <f t="shared" si="9"/>
         <v>-21.334099999999978</v>
       </c>
@@ -14491,7 +14494,7 @@
       </c>
       <c r="C471" s="13"/>
       <c r="D471" s="39"/>
-      <c r="E471" s="63">
+      <c r="E471" s="52">
         <f t="shared" si="9"/>
         <v>-21.334099999999978</v>
       </c>
@@ -14522,7 +14525,7 @@
       <c r="D472" s="39">
         <v>1</v>
       </c>
-      <c r="E472" s="63">
+      <c r="E472" s="52">
         <f t="shared" si="9"/>
         <v>-21.084099999999978</v>
       </c>
@@ -14547,7 +14550,7 @@
       <c r="D473" s="39">
         <v>0.80800000000000005</v>
       </c>
-      <c r="E473" s="63">
+      <c r="E473" s="52">
         <f t="shared" si="9"/>
         <v>-21.892099999999978</v>
       </c>
@@ -14574,7 +14577,7 @@
       <c r="D474" s="39">
         <v>0.115</v>
       </c>
-      <c r="E474" s="63">
+      <c r="E474" s="52">
         <f t="shared" si="9"/>
         <v>-20.757099999999976</v>
       </c>
@@ -14599,7 +14602,7 @@
         <v>1.25</v>
       </c>
       <c r="D475" s="39"/>
-      <c r="E475" s="63">
+      <c r="E475" s="52">
         <f t="shared" si="9"/>
         <v>-19.507099999999976</v>
       </c>
@@ -14626,7 +14629,7 @@
       <c r="D476" s="39">
         <v>0.18100000000000002</v>
       </c>
-      <c r="E476" s="63">
+      <c r="E476" s="52">
         <f t="shared" si="9"/>
         <v>-19.688099999999977</v>
       </c>
@@ -14653,7 +14656,7 @@
       <c r="D477" s="39">
         <v>1</v>
       </c>
-      <c r="E477" s="63">
+      <c r="E477" s="52">
         <f t="shared" si="9"/>
         <v>-19.438099999999977</v>
       </c>
@@ -14676,7 +14679,7 @@
       </c>
       <c r="C478" s="13"/>
       <c r="D478" s="39"/>
-      <c r="E478" s="63">
+      <c r="E478" s="52">
         <f t="shared" si="9"/>
         <v>-19.438099999999977</v>
       </c>
@@ -14701,7 +14704,7 @@
       <c r="D479" s="39">
         <v>0.22700000000000001</v>
       </c>
-      <c r="E479" s="63">
+      <c r="E479" s="52">
         <f t="shared" si="9"/>
         <v>-19.665099999999978</v>
       </c>
@@ -14728,7 +14731,7 @@
       <c r="D480" s="39">
         <v>0.89600000000000002</v>
       </c>
-      <c r="E480" s="63">
+      <c r="E480" s="52">
         <f t="shared" si="9"/>
         <v>-19.311099999999978</v>
       </c>
@@ -14755,7 +14758,7 @@
       <c r="D481" s="39">
         <v>1.3519999999999999</v>
       </c>
-      <c r="E481" s="63">
+      <c r="E481" s="52">
         <f t="shared" si="9"/>
         <v>-19.413099999999979</v>
       </c>
@@ -14782,7 +14785,7 @@
       <c r="D482" s="39">
         <v>1</v>
       </c>
-      <c r="E482" s="63">
+      <c r="E482" s="52">
         <f t="shared" si="9"/>
         <v>-19.163099999999979</v>
       </c>
@@ -14807,7 +14810,7 @@
       <c r="D483" s="39">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="E483" s="63">
+      <c r="E483" s="52">
         <f t="shared" ref="E483:E546" si="10">SUM(C483,E482)-D483</f>
         <v>-19.22809999999998</v>
       </c>
@@ -14834,7 +14837,7 @@
       <c r="D484" s="39">
         <v>1</v>
       </c>
-      <c r="E484" s="63">
+      <c r="E484" s="52">
         <f t="shared" si="10"/>
         <v>-18.97809999999998</v>
       </c>
@@ -14857,7 +14860,7 @@
       </c>
       <c r="C485" s="13"/>
       <c r="D485" s="39"/>
-      <c r="E485" s="63">
+      <c r="E485" s="52">
         <f t="shared" si="10"/>
         <v>-18.97809999999998</v>
       </c>
@@ -14882,7 +14885,7 @@
       </c>
       <c r="C486" s="13"/>
       <c r="D486" s="39"/>
-      <c r="E486" s="63">
+      <c r="E486" s="52">
         <f t="shared" si="10"/>
         <v>-18.97809999999998</v>
       </c>
@@ -14909,7 +14912,7 @@
       <c r="D487" s="39">
         <v>0.28500000000000003</v>
       </c>
-      <c r="E487" s="63">
+      <c r="E487" s="52">
         <f t="shared" si="10"/>
         <v>-19.26309999999998</v>
       </c>
@@ -14930,7 +14933,7 @@
       <c r="B488" s="20"/>
       <c r="C488" s="13"/>
       <c r="D488" s="39"/>
-      <c r="E488" s="63">
+      <c r="E488" s="52">
         <f t="shared" si="10"/>
         <v>-19.26309999999998</v>
       </c>
@@ -14957,7 +14960,7 @@
         <v>1.25</v>
       </c>
       <c r="D489" s="39"/>
-      <c r="E489" s="63">
+      <c r="E489" s="52">
         <f t="shared" si="10"/>
         <v>-18.01309999999998</v>
       </c>
@@ -14982,7 +14985,7 @@
       <c r="D490" s="39">
         <v>0.45400000000000001</v>
       </c>
-      <c r="E490" s="63">
+      <c r="E490" s="52">
         <f t="shared" si="10"/>
         <v>-18.467099999999981</v>
       </c>
@@ -15009,7 +15012,7 @@
       <c r="D491" s="39">
         <v>0.28499999999999998</v>
       </c>
-      <c r="E491" s="63">
+      <c r="E491" s="52">
         <f t="shared" si="10"/>
         <v>-17.502099999999981</v>
       </c>
@@ -15034,7 +15037,7 @@
         <v>1.25</v>
       </c>
       <c r="D492" s="39"/>
-      <c r="E492" s="63">
+      <c r="E492" s="52">
         <f t="shared" si="10"/>
         <v>-16.252099999999981</v>
       </c>
@@ -15059,7 +15062,7 @@
       <c r="D493" s="39">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E493" s="63">
+      <c r="E493" s="52">
         <f t="shared" si="10"/>
         <v>-16.392099999999981</v>
       </c>
@@ -15086,7 +15089,7 @@
       <c r="D494" s="39">
         <v>2</v>
       </c>
-      <c r="E494" s="63">
+      <c r="E494" s="52">
         <f t="shared" si="10"/>
         <v>-17.142099999999981</v>
       </c>
@@ -15111,7 +15114,7 @@
       <c r="D495" s="39">
         <v>0.23100000000000001</v>
       </c>
-      <c r="E495" s="63">
+      <c r="E495" s="52">
         <f t="shared" si="10"/>
         <v>-17.373099999999983</v>
       </c>
@@ -15136,7 +15139,7 @@
         <v>1.25</v>
       </c>
       <c r="D496" s="39"/>
-      <c r="E496" s="63">
+      <c r="E496" s="52">
         <f t="shared" si="10"/>
         <v>-16.123099999999983</v>
       </c>
@@ -15163,7 +15166,7 @@
       <c r="D497" s="39">
         <v>0.27300000000000002</v>
       </c>
-      <c r="E497" s="63">
+      <c r="E497" s="52">
         <f t="shared" si="10"/>
         <v>-16.396099999999983</v>
       </c>
@@ -15190,7 +15193,7 @@
       <c r="D498" s="39">
         <v>1</v>
       </c>
-      <c r="E498" s="63">
+      <c r="E498" s="52">
         <f t="shared" si="10"/>
         <v>-16.146099999999983</v>
       </c>
@@ -15215,7 +15218,7 @@
       <c r="D499" s="39">
         <v>0.09</v>
       </c>
-      <c r="E499" s="63">
+      <c r="E499" s="52">
         <f t="shared" si="10"/>
         <v>-16.236099999999983</v>
       </c>
@@ -15242,7 +15245,7 @@
       <c r="D500" s="39">
         <v>1</v>
       </c>
-      <c r="E500" s="63">
+      <c r="E500" s="52">
         <f t="shared" si="10"/>
         <v>-15.986099999999983</v>
       </c>
@@ -15267,7 +15270,7 @@
       <c r="D501" s="39">
         <v>0.40200000000000002</v>
       </c>
-      <c r="E501" s="63">
+      <c r="E501" s="52">
         <f t="shared" si="10"/>
         <v>-16.388099999999984</v>
       </c>
@@ -15294,7 +15297,7 @@
       <c r="D502" s="39">
         <v>1</v>
       </c>
-      <c r="E502" s="63">
+      <c r="E502" s="52">
         <f t="shared" si="10"/>
         <v>-16.138099999999984</v>
       </c>
@@ -15319,7 +15322,7 @@
       <c r="D503" s="39">
         <v>0.51700000000000002</v>
       </c>
-      <c r="E503" s="63">
+      <c r="E503" s="52">
         <f t="shared" si="10"/>
         <v>-16.655099999999983</v>
       </c>
@@ -15344,7 +15347,7 @@
         <v>1.25</v>
       </c>
       <c r="D504" s="39"/>
-      <c r="E504" s="63">
+      <c r="E504" s="52">
         <f t="shared" si="10"/>
         <v>-15.405099999999983</v>
       </c>
@@ -15371,7 +15374,7 @@
       <c r="D505" s="39">
         <v>0.16900000000000001</v>
       </c>
-      <c r="E505" s="63">
+      <c r="E505" s="52">
         <f t="shared" si="10"/>
         <v>-15.574099999999984</v>
       </c>
@@ -15396,7 +15399,7 @@
         <v>1.25</v>
       </c>
       <c r="D506" s="39"/>
-      <c r="E506" s="63">
+      <c r="E506" s="52">
         <f t="shared" si="10"/>
         <v>-14.324099999999984</v>
       </c>
@@ -15423,7 +15426,7 @@
       <c r="D507" s="39">
         <v>1</v>
       </c>
-      <c r="E507" s="63">
+      <c r="E507" s="52">
         <f t="shared" si="10"/>
         <v>-15.324099999999984</v>
       </c>
@@ -15448,7 +15451,7 @@
       <c r="D508" s="39">
         <v>7.9000000000000015E-2</v>
       </c>
-      <c r="E508" s="63">
+      <c r="E508" s="52">
         <f t="shared" si="10"/>
         <v>-15.403099999999984</v>
       </c>
@@ -15475,7 +15478,7 @@
       <c r="D509" s="39">
         <v>1</v>
       </c>
-      <c r="E509" s="63">
+      <c r="E509" s="52">
         <f t="shared" si="10"/>
         <v>-15.153099999999984</v>
       </c>
@@ -15500,7 +15503,7 @@
       <c r="D510" s="39">
         <v>0.29599999999999999</v>
       </c>
-      <c r="E510" s="63">
+      <c r="E510" s="52">
         <f t="shared" si="10"/>
         <v>-15.449099999999984</v>
       </c>
@@ -15527,7 +15530,7 @@
       <c r="D511" s="39">
         <v>1.01</v>
       </c>
-      <c r="E511" s="63">
+      <c r="E511" s="52">
         <f t="shared" si="10"/>
         <v>-15.209099999999983</v>
       </c>
@@ -15548,7 +15551,7 @@
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
       <c r="D512" s="39"/>
-      <c r="E512" s="63">
+      <c r="E512" s="52">
         <f t="shared" si="10"/>
         <v>-15.209099999999983</v>
       </c>
@@ -15573,7 +15576,7 @@
         <v>1.25</v>
       </c>
       <c r="D513" s="39"/>
-      <c r="E513" s="63">
+      <c r="E513" s="52">
         <f t="shared" si="10"/>
         <v>-13.959099999999983</v>
       </c>
@@ -15598,7 +15601,7 @@
       </c>
       <c r="C514" s="13"/>
       <c r="D514" s="39"/>
-      <c r="E514" s="63">
+      <c r="E514" s="52">
         <f t="shared" si="10"/>
         <v>-13.959099999999983</v>
       </c>
@@ -15623,7 +15626,7 @@
         <v>1.25</v>
       </c>
       <c r="D515" s="39"/>
-      <c r="E515" s="63">
+      <c r="E515" s="52">
         <f t="shared" si="10"/>
         <v>-12.709099999999983</v>
       </c>
@@ -15648,7 +15651,7 @@
         <v>1.25</v>
       </c>
       <c r="D516" s="39"/>
-      <c r="E516" s="63">
+      <c r="E516" s="52">
         <f t="shared" si="10"/>
         <v>-11.459099999999983</v>
       </c>
@@ -15675,7 +15678,7 @@
       <c r="D517" s="39">
         <v>1</v>
       </c>
-      <c r="E517" s="63">
+      <c r="E517" s="52">
         <f t="shared" si="10"/>
         <v>-12.459099999999983</v>
       </c>
@@ -15702,7 +15705,7 @@
         <v>1.25</v>
       </c>
       <c r="D518" s="39"/>
-      <c r="E518" s="63">
+      <c r="E518" s="52">
         <f t="shared" si="10"/>
         <v>-11.209099999999983</v>
       </c>
@@ -15727,7 +15730,7 @@
       <c r="D519" s="39">
         <v>2</v>
       </c>
-      <c r="E519" s="63">
+      <c r="E519" s="52">
         <f t="shared" si="10"/>
         <v>-13.209099999999983</v>
       </c>
@@ -15750,7 +15753,7 @@
       </c>
       <c r="C520" s="13"/>
       <c r="D520" s="39"/>
-      <c r="E520" s="63">
+      <c r="E520" s="52">
         <f t="shared" si="10"/>
         <v>-13.209099999999983</v>
       </c>
@@ -15777,7 +15780,7 @@
         <v>1.25</v>
       </c>
       <c r="D521" s="39"/>
-      <c r="E521" s="63">
+      <c r="E521" s="52">
         <f t="shared" si="10"/>
         <v>-11.959099999999983</v>
       </c>
@@ -15802,7 +15805,7 @@
         <v>1.25</v>
       </c>
       <c r="D522" s="39"/>
-      <c r="E522" s="63">
+      <c r="E522" s="52">
         <f t="shared" si="10"/>
         <v>-10.709099999999983</v>
       </c>
@@ -15823,7 +15826,7 @@
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
       <c r="D523" s="39"/>
-      <c r="E523" s="63">
+      <c r="E523" s="52">
         <f t="shared" si="10"/>
         <v>-10.709099999999983</v>
       </c>
@@ -15848,7 +15851,7 @@
         <v>1.25</v>
       </c>
       <c r="D524" s="39"/>
-      <c r="E524" s="63">
+      <c r="E524" s="52">
         <f t="shared" si="10"/>
         <v>-9.4590999999999834</v>
       </c>
@@ -15875,7 +15878,7 @@
         <v>1.25</v>
       </c>
       <c r="D525" s="39"/>
-      <c r="E525" s="63">
+      <c r="E525" s="52">
         <f t="shared" si="10"/>
         <v>-8.2090999999999834</v>
       </c>
@@ -15898,7 +15901,7 @@
       <c r="D526" s="39">
         <v>1</v>
       </c>
-      <c r="E526" s="63">
+      <c r="E526" s="52">
         <f t="shared" si="10"/>
         <v>-9.2090999999999834</v>
       </c>
@@ -15921,7 +15924,7 @@
       </c>
       <c r="C527" s="13"/>
       <c r="D527" s="39"/>
-      <c r="E527" s="63">
+      <c r="E527" s="52">
         <f t="shared" si="10"/>
         <v>-9.2090999999999834</v>
       </c>
@@ -15950,7 +15953,7 @@
         <v>1.25</v>
       </c>
       <c r="D528" s="39"/>
-      <c r="E528" s="63">
+      <c r="E528" s="52">
         <f t="shared" si="10"/>
         <v>-7.9590999999999834</v>
       </c>
@@ -15973,7 +15976,7 @@
       </c>
       <c r="C529" s="13"/>
       <c r="D529" s="39"/>
-      <c r="E529" s="63">
+      <c r="E529" s="52">
         <f t="shared" si="10"/>
         <v>-7.9590999999999834</v>
       </c>
@@ -16004,7 +16007,7 @@
       <c r="D530" s="39">
         <v>1</v>
       </c>
-      <c r="E530" s="63">
+      <c r="E530" s="52">
         <f t="shared" si="10"/>
         <v>-7.7090999999999834</v>
       </c>
@@ -16025,7 +16028,7 @@
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
       <c r="D531" s="39"/>
-      <c r="E531" s="63">
+      <c r="E531" s="52">
         <f t="shared" si="10"/>
         <v>-7.7090999999999834</v>
       </c>
@@ -16050,7 +16053,7 @@
         <v>1.25</v>
       </c>
       <c r="D532" s="39"/>
-      <c r="E532" s="63">
+      <c r="E532" s="52">
         <f t="shared" si="10"/>
         <v>-6.4590999999999834</v>
       </c>
@@ -16075,7 +16078,7 @@
       </c>
       <c r="C533" s="13"/>
       <c r="D533" s="39"/>
-      <c r="E533" s="63">
+      <c r="E533" s="52">
         <f t="shared" si="10"/>
         <v>-6.4590999999999834</v>
       </c>
@@ -16098,7 +16101,7 @@
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
       <c r="D534" s="39"/>
-      <c r="E534" s="63">
+      <c r="E534" s="52">
         <f t="shared" si="10"/>
         <v>-6.4590999999999834</v>
       </c>
@@ -16123,7 +16126,7 @@
         <v>1.25</v>
       </c>
       <c r="D535" s="39"/>
-      <c r="E535" s="63">
+      <c r="E535" s="52">
         <f t="shared" si="10"/>
         <v>-5.2090999999999834</v>
       </c>
@@ -16150,7 +16153,7 @@
       <c r="D536" s="39">
         <v>1</v>
       </c>
-      <c r="E536" s="63">
+      <c r="E536" s="52">
         <f t="shared" si="10"/>
         <v>-6.2090999999999834</v>
       </c>
@@ -16173,7 +16176,7 @@
       </c>
       <c r="C537" s="13"/>
       <c r="D537" s="39"/>
-      <c r="E537" s="63">
+      <c r="E537" s="52">
         <f t="shared" si="10"/>
         <v>-6.2090999999999834</v>
       </c>
@@ -16198,7 +16201,7 @@
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
       <c r="D538" s="39"/>
-      <c r="E538" s="63">
+      <c r="E538" s="52">
         <f t="shared" si="10"/>
         <v>-6.2090999999999834</v>
       </c>
@@ -16223,7 +16226,7 @@
         <v>1.25</v>
       </c>
       <c r="D539" s="39"/>
-      <c r="E539" s="63">
+      <c r="E539" s="52">
         <f t="shared" si="10"/>
         <v>-4.9590999999999834</v>
       </c>
@@ -16248,7 +16251,7 @@
         <v>1.25</v>
       </c>
       <c r="D540" s="39"/>
-      <c r="E540" s="63">
+      <c r="E540" s="52">
         <f t="shared" si="10"/>
         <v>-3.7090999999999834</v>
       </c>
@@ -16271,7 +16274,7 @@
         <v>1.25</v>
       </c>
       <c r="D541" s="39"/>
-      <c r="E541" s="63">
+      <c r="E541" s="52">
         <f t="shared" si="10"/>
         <v>-2.4590999999999834</v>
       </c>
@@ -16296,7 +16299,7 @@
         <v>1.25</v>
       </c>
       <c r="D542" s="39"/>
-      <c r="E542" s="63">
+      <c r="E542" s="52">
         <f t="shared" si="10"/>
         <v>-1.2090999999999834</v>
       </c>
@@ -16317,7 +16320,7 @@
       </c>
       <c r="C543" s="13"/>
       <c r="D543" s="39"/>
-      <c r="E543" s="63">
+      <c r="E543" s="52">
         <f t="shared" si="10"/>
         <v>-1.2090999999999834</v>
       </c>
@@ -16340,7 +16343,7 @@
       </c>
       <c r="C544" s="13"/>
       <c r="D544" s="39"/>
-      <c r="E544" s="63">
+      <c r="E544" s="52">
         <f t="shared" si="10"/>
         <v>-1.2090999999999834</v>
       </c>
@@ -16365,7 +16368,7 @@
       </c>
       <c r="C545" s="13"/>
       <c r="D545" s="39"/>
-      <c r="E545" s="63">
+      <c r="E545" s="52">
         <f t="shared" si="10"/>
         <v>-1.2090999999999834</v>
       </c>
@@ -16392,7 +16395,7 @@
         <v>1.25</v>
       </c>
       <c r="D546" s="39"/>
-      <c r="E546" s="63">
+      <c r="E546" s="52">
         <f t="shared" si="10"/>
         <v>4.090000000001659E-2</v>
       </c>
@@ -16415,7 +16418,7 @@
         <v>1.25</v>
       </c>
       <c r="D547" s="39"/>
-      <c r="E547" s="63">
+      <c r="E547" s="52">
         <f t="shared" ref="E547:E610" si="11">SUM(C547,E546)-D547</f>
         <v>1.2909000000000166</v>
       </c>
@@ -16440,7 +16443,7 @@
         <v>1.25</v>
       </c>
       <c r="D548" s="39"/>
-      <c r="E548" s="63">
+      <c r="E548" s="52">
         <f t="shared" si="11"/>
         <v>2.5409000000000166</v>
       </c>
@@ -16465,7 +16468,7 @@
       </c>
       <c r="C549" s="13"/>
       <c r="D549" s="39"/>
-      <c r="E549" s="63">
+      <c r="E549" s="52">
         <f t="shared" si="11"/>
         <v>2.5409000000000166</v>
       </c>
@@ -16494,7 +16497,7 @@
         <v>1.25</v>
       </c>
       <c r="D550" s="39"/>
-      <c r="E550" s="63">
+      <c r="E550" s="52">
         <f t="shared" si="11"/>
         <v>3.7909000000000166</v>
       </c>
@@ -16525,7 +16528,7 @@
       <c r="D551" s="39">
         <v>2</v>
       </c>
-      <c r="E551" s="63">
+      <c r="E551" s="52">
         <f t="shared" si="11"/>
         <v>3.0409000000000166</v>
       </c>
@@ -16550,7 +16553,7 @@
       <c r="D552" s="39">
         <v>2</v>
       </c>
-      <c r="E552" s="63">
+      <c r="E552" s="52">
         <f t="shared" si="11"/>
         <v>1.0409000000000166</v>
       </c>
@@ -16575,7 +16578,7 @@
         <v>1.25</v>
       </c>
       <c r="D553" s="39"/>
-      <c r="E553" s="63">
+      <c r="E553" s="52">
         <f t="shared" si="11"/>
         <v>2.2909000000000166</v>
       </c>
@@ -16598,7 +16601,7 @@
         <v>1.25</v>
       </c>
       <c r="D554" s="39"/>
-      <c r="E554" s="63">
+      <c r="E554" s="52">
         <f t="shared" si="11"/>
         <v>3.5409000000000166</v>
       </c>
@@ -16625,7 +16628,7 @@
       <c r="D555" s="39">
         <v>2</v>
       </c>
-      <c r="E555" s="63">
+      <c r="E555" s="52">
         <f t="shared" si="11"/>
         <v>2.7909000000000166</v>
       </c>
@@ -16648,7 +16651,7 @@
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
       <c r="D556" s="39"/>
-      <c r="E556" s="63">
+      <c r="E556" s="52">
         <f t="shared" si="11"/>
         <v>2.7909000000000166</v>
       </c>
@@ -16673,7 +16676,7 @@
         <v>1.25</v>
       </c>
       <c r="D557" s="39"/>
-      <c r="E557" s="63">
+      <c r="E557" s="52">
         <f t="shared" si="11"/>
         <v>4.0409000000000166</v>
       </c>
@@ -16700,7 +16703,7 @@
         <v>1.25</v>
       </c>
       <c r="D558" s="39"/>
-      <c r="E558" s="63">
+      <c r="E558" s="52">
         <f t="shared" si="11"/>
         <v>5.2909000000000166</v>
       </c>
@@ -16725,7 +16728,7 @@
       </c>
       <c r="C559" s="13"/>
       <c r="D559" s="39"/>
-      <c r="E559" s="63">
+      <c r="E559" s="52">
         <f t="shared" si="11"/>
         <v>5.2909000000000166</v>
       </c>
@@ -16748,7 +16751,7 @@
       </c>
       <c r="C560" s="13"/>
       <c r="D560" s="39"/>
-      <c r="E560" s="63">
+      <c r="E560" s="52">
         <f t="shared" si="11"/>
         <v>5.2909000000000166</v>
       </c>
@@ -16775,7 +16778,7 @@
         <v>1.25</v>
       </c>
       <c r="D561" s="43"/>
-      <c r="E561" s="63">
+      <c r="E561" s="52">
         <f t="shared" si="11"/>
         <v>6.5409000000000166</v>
       </c>
@@ -16798,7 +16801,7 @@
       </c>
       <c r="C562" s="13"/>
       <c r="D562" s="39"/>
-      <c r="E562" s="63">
+      <c r="E562" s="52">
         <f t="shared" si="11"/>
         <v>6.5409000000000166</v>
       </c>
@@ -16825,7 +16828,7 @@
       <c r="D563" s="39">
         <v>2</v>
       </c>
-      <c r="E563" s="63">
+      <c r="E563" s="52">
         <f t="shared" si="11"/>
         <v>5.7909000000000166</v>
       </c>
@@ -16850,7 +16853,7 @@
         <v>1.25</v>
       </c>
       <c r="D564" s="39"/>
-      <c r="E564" s="63">
+      <c r="E564" s="52">
         <f t="shared" si="11"/>
         <v>7.0409000000000166</v>
       </c>
@@ -16877,7 +16880,7 @@
       <c r="D565" s="39">
         <v>1</v>
       </c>
-      <c r="E565" s="63">
+      <c r="E565" s="52">
         <f t="shared" si="11"/>
         <v>7.2909000000000166</v>
       </c>
@@ -16902,7 +16905,7 @@
       <c r="D566" s="39">
         <v>1</v>
       </c>
-      <c r="E566" s="63">
+      <c r="E566" s="52">
         <f t="shared" si="11"/>
         <v>6.2909000000000166</v>
       </c>
@@ -16929,7 +16932,7 @@
         <v>1.25</v>
       </c>
       <c r="D567" s="39"/>
-      <c r="E567" s="63">
+      <c r="E567" s="52">
         <f t="shared" si="11"/>
         <v>7.5409000000000166</v>
       </c>
@@ -16956,7 +16959,7 @@
         <v>1.25</v>
       </c>
       <c r="D568" s="39"/>
-      <c r="E568" s="63">
+      <c r="E568" s="52">
         <f t="shared" si="11"/>
         <v>8.7909000000000166</v>
       </c>
@@ -16983,7 +16986,7 @@
       <c r="D569" s="39">
         <v>1</v>
       </c>
-      <c r="E569" s="63">
+      <c r="E569" s="52">
         <f t="shared" si="11"/>
         <v>9.0409000000000166</v>
       </c>
@@ -17012,7 +17015,7 @@
       <c r="D570" s="39">
         <v>2</v>
       </c>
-      <c r="E570" s="63">
+      <c r="E570" s="52">
         <f t="shared" si="11"/>
         <v>8.2909000000000166</v>
       </c>
@@ -17037,7 +17040,7 @@
         <v>1.25</v>
       </c>
       <c r="D571" s="39"/>
-      <c r="E571" s="63">
+      <c r="E571" s="52">
         <f t="shared" si="11"/>
         <v>9.5409000000000166</v>
       </c>
@@ -17060,7 +17063,7 @@
         <v>1.25</v>
       </c>
       <c r="D572" s="39"/>
-      <c r="E572" s="63">
+      <c r="E572" s="52">
         <f t="shared" si="11"/>
         <v>10.790900000000017</v>
       </c>
@@ -17081,7 +17084,7 @@
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
       <c r="D573" s="39"/>
-      <c r="E573" s="63">
+      <c r="E573" s="52">
         <f t="shared" si="11"/>
         <v>10.790900000000017</v>
       </c>
@@ -17104,7 +17107,7 @@
         <v>1.25</v>
       </c>
       <c r="D574" s="39"/>
-      <c r="E574" s="63">
+      <c r="E574" s="52">
         <f t="shared" si="11"/>
         <v>12.040900000000017</v>
       </c>
@@ -17127,7 +17130,7 @@
       </c>
       <c r="C575" s="13"/>
       <c r="D575" s="39"/>
-      <c r="E575" s="63">
+      <c r="E575" s="52">
         <f t="shared" si="11"/>
         <v>12.040900000000017</v>
       </c>
@@ -17154,7 +17157,7 @@
         <v>1.25</v>
       </c>
       <c r="D576" s="39"/>
-      <c r="E576" s="63">
+      <c r="E576" s="52">
         <f t="shared" si="11"/>
         <v>13.290900000000017</v>
       </c>
@@ -17181,7 +17184,7 @@
         <v>1.25</v>
       </c>
       <c r="D577" s="39"/>
-      <c r="E577" s="63">
+      <c r="E577" s="52">
         <f t="shared" si="11"/>
         <v>14.540900000000017</v>
       </c>
@@ -17208,7 +17211,7 @@
         <v>1.25</v>
       </c>
       <c r="D578" s="39"/>
-      <c r="E578" s="63">
+      <c r="E578" s="52">
         <f t="shared" si="11"/>
         <v>15.790900000000017</v>
       </c>
@@ -17231,7 +17234,7 @@
         <v>1.25</v>
       </c>
       <c r="D579" s="39"/>
-      <c r="E579" s="63">
+      <c r="E579" s="52">
         <f t="shared" si="11"/>
         <v>17.040900000000015</v>
       </c>
@@ -17254,7 +17257,7 @@
       </c>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
-      <c r="E580" s="63">
+      <c r="E580" s="52">
         <f t="shared" si="11"/>
         <v>17.040900000000015</v>
       </c>
@@ -17279,7 +17282,7 @@
         <v>1.25</v>
       </c>
       <c r="D581" s="39"/>
-      <c r="E581" s="63">
+      <c r="E581" s="52">
         <f t="shared" si="11"/>
         <v>18.290900000000015</v>
       </c>
@@ -17306,7 +17309,7 @@
         <v>1.25</v>
       </c>
       <c r="D582" s="39"/>
-      <c r="E582" s="63">
+      <c r="E582" s="52">
         <f t="shared" si="11"/>
         <v>19.540900000000015</v>
       </c>
@@ -17331,7 +17334,7 @@
       </c>
       <c r="C583" s="13"/>
       <c r="D583" s="39"/>
-      <c r="E583" s="63">
+      <c r="E583" s="52">
         <f t="shared" si="11"/>
         <v>19.540900000000015</v>
       </c>
@@ -17356,7 +17359,7 @@
       </c>
       <c r="C584" s="13"/>
       <c r="D584" s="39"/>
-      <c r="E584" s="63">
+      <c r="E584" s="52">
         <f t="shared" si="11"/>
         <v>19.540900000000015</v>
       </c>
@@ -17379,7 +17382,7 @@
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
       <c r="D585" s="39"/>
-      <c r="E585" s="63">
+      <c r="E585" s="52">
         <f t="shared" si="11"/>
         <v>19.540900000000015</v>
       </c>
@@ -17402,7 +17405,7 @@
         <v>1.25</v>
       </c>
       <c r="D586" s="39"/>
-      <c r="E586" s="63">
+      <c r="E586" s="52">
         <f t="shared" si="11"/>
         <v>20.790900000000015</v>
       </c>
@@ -17427,7 +17430,7 @@
         <v>1.25</v>
       </c>
       <c r="D587" s="39"/>
-      <c r="E587" s="63">
+      <c r="E587" s="52">
         <f t="shared" si="11"/>
         <v>22.040900000000015</v>
       </c>
@@ -17452,7 +17455,7 @@
       </c>
       <c r="C588" s="13"/>
       <c r="D588" s="39"/>
-      <c r="E588" s="63">
+      <c r="E588" s="52">
         <f t="shared" si="11"/>
         <v>22.040900000000015</v>
       </c>
@@ -17477,7 +17480,7 @@
       </c>
       <c r="C589" s="13"/>
       <c r="D589" s="39"/>
-      <c r="E589" s="63">
+      <c r="E589" s="52">
         <f t="shared" si="11"/>
         <v>22.040900000000015</v>
       </c>
@@ -17504,7 +17507,7 @@
       <c r="D590" s="39">
         <v>2</v>
       </c>
-      <c r="E590" s="63">
+      <c r="E590" s="52">
         <f t="shared" si="11"/>
         <v>20.040900000000015</v>
       </c>
@@ -17529,7 +17532,7 @@
         <v>1.25</v>
       </c>
       <c r="D591" s="39"/>
-      <c r="E591" s="63">
+      <c r="E591" s="52">
         <f t="shared" si="11"/>
         <v>21.290900000000015</v>
       </c>
@@ -17552,7 +17555,7 @@
         <v>1.25</v>
       </c>
       <c r="D592" s="39"/>
-      <c r="E592" s="63">
+      <c r="E592" s="52">
         <f t="shared" si="11"/>
         <v>22.540900000000015</v>
       </c>
@@ -17579,7 +17582,7 @@
       <c r="D593" s="39">
         <v>2</v>
       </c>
-      <c r="E593" s="63">
+      <c r="E593" s="52">
         <f t="shared" si="11"/>
         <v>21.790900000000015</v>
       </c>
@@ -17602,7 +17605,7 @@
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
       <c r="D594" s="39"/>
-      <c r="E594" s="63">
+      <c r="E594" s="52">
         <f t="shared" si="11"/>
         <v>21.790900000000015</v>
       </c>
@@ -17625,7 +17628,7 @@
       </c>
       <c r="C595" s="13"/>
       <c r="D595" s="39"/>
-      <c r="E595" s="63">
+      <c r="E595" s="52">
         <f t="shared" si="11"/>
         <v>21.790900000000015</v>
       </c>
@@ -17652,7 +17655,7 @@
       <c r="D596" s="39">
         <v>5</v>
       </c>
-      <c r="E596" s="63">
+      <c r="E596" s="52">
         <f t="shared" si="11"/>
         <v>18.040900000000015</v>
       </c>
@@ -17681,7 +17684,7 @@
       <c r="D597" s="39">
         <v>2</v>
       </c>
-      <c r="E597" s="63">
+      <c r="E597" s="52">
         <f t="shared" si="11"/>
         <v>17.290900000000015</v>
       </c>
@@ -17706,7 +17709,7 @@
         <v>1.25</v>
       </c>
       <c r="D598" s="39"/>
-      <c r="E598" s="63">
+      <c r="E598" s="52">
         <f t="shared" si="11"/>
         <v>18.540900000000015</v>
       </c>
@@ -17729,7 +17732,7 @@
         <v>1.25</v>
       </c>
       <c r="D599" s="39"/>
-      <c r="E599" s="63">
+      <c r="E599" s="52">
         <f t="shared" si="11"/>
         <v>19.790900000000015</v>
       </c>
@@ -17752,7 +17755,7 @@
         <v>1.25</v>
       </c>
       <c r="D600" s="39"/>
-      <c r="E600" s="63">
+      <c r="E600" s="52">
         <f t="shared" si="11"/>
         <v>21.040900000000015</v>
       </c>
@@ -17775,7 +17778,7 @@
         <v>1.25</v>
       </c>
       <c r="D601" s="39"/>
-      <c r="E601" s="63">
+      <c r="E601" s="52">
         <f t="shared" si="11"/>
         <v>22.290900000000015</v>
       </c>
@@ -17800,7 +17803,7 @@
         <v>1.25</v>
       </c>
       <c r="D602" s="39"/>
-      <c r="E602" s="63">
+      <c r="E602" s="52">
         <f t="shared" si="11"/>
         <v>23.540900000000015</v>
       </c>
@@ -17825,7 +17828,7 @@
       <c r="D603" s="39">
         <v>3</v>
       </c>
-      <c r="E603" s="63">
+      <c r="E603" s="52">
         <f t="shared" si="11"/>
         <v>20.540900000000015</v>
       </c>
@@ -17848,7 +17851,7 @@
       </c>
       <c r="C604" s="13"/>
       <c r="D604" s="39"/>
-      <c r="E604" s="63">
+      <c r="E604" s="52">
         <f t="shared" si="11"/>
         <v>20.540900000000015</v>
       </c>
@@ -17875,7 +17878,7 @@
       <c r="D605" s="39">
         <v>2</v>
       </c>
-      <c r="E605" s="63">
+      <c r="E605" s="52">
         <f t="shared" si="11"/>
         <v>18.540900000000015</v>
       </c>
@@ -17900,7 +17903,7 @@
         <v>1.25</v>
       </c>
       <c r="D606" s="39"/>
-      <c r="E606" s="63">
+      <c r="E606" s="52">
         <f t="shared" si="11"/>
         <v>19.790900000000015</v>
       </c>
@@ -17927,7 +17930,7 @@
       <c r="D607" s="39">
         <v>1</v>
       </c>
-      <c r="E607" s="63">
+      <c r="E607" s="52">
         <f t="shared" si="11"/>
         <v>18.790900000000015</v>
       </c>
@@ -17954,7 +17957,7 @@
         <v>1.25</v>
       </c>
       <c r="D608" s="39"/>
-      <c r="E608" s="63">
+      <c r="E608" s="52">
         <f t="shared" si="11"/>
         <v>20.040900000000015</v>
       </c>
@@ -17985,7 +17988,7 @@
       <c r="D609" s="39">
         <v>1</v>
       </c>
-      <c r="E609" s="63">
+      <c r="E609" s="52">
         <f t="shared" si="11"/>
         <v>20.290900000000015</v>
       </c>
@@ -18008,7 +18011,7 @@
       </c>
       <c r="C610" s="13"/>
       <c r="D610" s="39"/>
-      <c r="E610" s="63">
+      <c r="E610" s="52">
         <f t="shared" si="11"/>
         <v>20.290900000000015</v>
       </c>
@@ -18035,7 +18038,7 @@
         <v>1.25</v>
       </c>
       <c r="D611" s="39"/>
-      <c r="E611" s="63">
+      <c r="E611" s="52">
         <f t="shared" ref="E611:E654" si="12">SUM(C611,E610)-D611</f>
         <v>21.540900000000015</v>
       </c>
@@ -18060,7 +18063,7 @@
         <v>1.25</v>
       </c>
       <c r="D612" s="39"/>
-      <c r="E612" s="63">
+      <c r="E612" s="52">
         <f t="shared" si="12"/>
         <v>22.790900000000015</v>
       </c>
@@ -18085,7 +18088,7 @@
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
       <c r="D613" s="39"/>
-      <c r="E613" s="63">
+      <c r="E613" s="52">
         <f t="shared" si="12"/>
         <v>22.790900000000015</v>
       </c>
@@ -18108,7 +18111,7 @@
         <v>1.25</v>
       </c>
       <c r="D614" s="39"/>
-      <c r="E614" s="63">
+      <c r="E614" s="52">
         <f t="shared" si="12"/>
         <v>24.040900000000015</v>
       </c>
@@ -18131,7 +18134,7 @@
         <v>1.25</v>
       </c>
       <c r="D615" s="39"/>
-      <c r="E615" s="63">
+      <c r="E615" s="52">
         <f t="shared" si="12"/>
         <v>25.290900000000015</v>
       </c>
@@ -18154,7 +18157,7 @@
         <v>1.25</v>
       </c>
       <c r="D616" s="39"/>
-      <c r="E616" s="63">
+      <c r="E616" s="52">
         <f t="shared" si="12"/>
         <v>26.540900000000015</v>
       </c>
@@ -18177,7 +18180,7 @@
         <v>1.25</v>
       </c>
       <c r="D617" s="39"/>
-      <c r="E617" s="63">
+      <c r="E617" s="52">
         <f t="shared" si="12"/>
         <v>27.790900000000015</v>
       </c>
@@ -18200,7 +18203,7 @@
         <v>1.25</v>
       </c>
       <c r="D618" s="39"/>
-      <c r="E618" s="63">
+      <c r="E618" s="52">
         <f t="shared" si="12"/>
         <v>29.040900000000015</v>
       </c>
@@ -18223,7 +18226,7 @@
         <v>1.25</v>
       </c>
       <c r="D619" s="39"/>
-      <c r="E619" s="63">
+      <c r="E619" s="52">
         <f t="shared" si="12"/>
         <v>30.290900000000015</v>
       </c>
@@ -18248,7 +18251,7 @@
         <v>1.25</v>
       </c>
       <c r="D620" s="39"/>
-      <c r="E620" s="63">
+      <c r="E620" s="52">
         <f t="shared" si="12"/>
         <v>31.540900000000015</v>
       </c>
@@ -18273,7 +18276,7 @@
         <v>1.25</v>
       </c>
       <c r="D621" s="39"/>
-      <c r="E621" s="63">
+      <c r="E621" s="52">
         <f t="shared" si="12"/>
         <v>32.790900000000015</v>
       </c>
@@ -18300,7 +18303,7 @@
       <c r="D622" s="39">
         <v>1</v>
       </c>
-      <c r="E622" s="63">
+      <c r="E622" s="52">
         <f t="shared" si="12"/>
         <v>33.040900000000015</v>
       </c>
@@ -18323,7 +18326,7 @@
       </c>
       <c r="C623" s="13"/>
       <c r="D623" s="39"/>
-      <c r="E623" s="63">
+      <c r="E623" s="52">
         <f t="shared" si="12"/>
         <v>33.040900000000015</v>
       </c>
@@ -18346,7 +18349,7 @@
       </c>
       <c r="C624" s="13"/>
       <c r="D624" s="39"/>
-      <c r="E624" s="63">
+      <c r="E624" s="52">
         <f t="shared" si="12"/>
         <v>33.040900000000015</v>
       </c>
@@ -18371,7 +18374,7 @@
         <v>1.25</v>
       </c>
       <c r="D625" s="39"/>
-      <c r="E625" s="63">
+      <c r="E625" s="52">
         <f t="shared" si="12"/>
         <v>34.290900000000015</v>
       </c>
@@ -18398,7 +18401,7 @@
       <c r="D626" s="39">
         <v>2</v>
       </c>
-      <c r="E626" s="63">
+      <c r="E626" s="52">
         <f t="shared" si="12"/>
         <v>33.540900000000015</v>
       </c>
@@ -18423,7 +18426,7 @@
       <c r="D627" s="39">
         <v>2</v>
       </c>
-      <c r="E627" s="63">
+      <c r="E627" s="52">
         <f t="shared" si="12"/>
         <v>31.540900000000015</v>
       </c>
@@ -18452,7 +18455,7 @@
       <c r="D628" s="39">
         <v>1</v>
       </c>
-      <c r="E628" s="63">
+      <c r="E628" s="52">
         <f t="shared" si="12"/>
         <v>31.790900000000015</v>
       </c>
@@ -18477,7 +18480,7 @@
       <c r="D629" s="39">
         <v>1</v>
       </c>
-      <c r="E629" s="63">
+      <c r="E629" s="52">
         <f t="shared" si="12"/>
         <v>30.790900000000015</v>
       </c>
@@ -18498,7 +18501,7 @@
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
       <c r="D630" s="39"/>
-      <c r="E630" s="63">
+      <c r="E630" s="52">
         <f t="shared" si="12"/>
         <v>30.790900000000015</v>
       </c>
@@ -18521,7 +18524,7 @@
         <v>1.25</v>
       </c>
       <c r="D631" s="39"/>
-      <c r="E631" s="63">
+      <c r="E631" s="52">
         <f t="shared" si="12"/>
         <v>32.040900000000015</v>
       </c>
@@ -18544,7 +18547,7 @@
         <v>1.25</v>
       </c>
       <c r="D632" s="39"/>
-      <c r="E632" s="63">
+      <c r="E632" s="52">
         <f t="shared" si="12"/>
         <v>33.290900000000015</v>
       </c>
@@ -18569,7 +18572,7 @@
         <v>1.25</v>
       </c>
       <c r="D633" s="39"/>
-      <c r="E633" s="63">
+      <c r="E633" s="52">
         <f t="shared" si="12"/>
         <v>34.540900000000015</v>
       </c>
@@ -18596,7 +18599,7 @@
         <v>1.25</v>
       </c>
       <c r="D634" s="39"/>
-      <c r="E634" s="63">
+      <c r="E634" s="52">
         <f t="shared" si="12"/>
         <v>35.790900000000015</v>
       </c>
@@ -18621,7 +18624,7 @@
         <v>1.25</v>
       </c>
       <c r="D635" s="39"/>
-      <c r="E635" s="63">
+      <c r="E635" s="52">
         <f t="shared" si="12"/>
         <v>37.040900000000015</v>
       </c>
@@ -18648,7 +18651,7 @@
       <c r="D636" s="39">
         <v>2</v>
       </c>
-      <c r="E636" s="63">
+      <c r="E636" s="52">
         <f t="shared" si="12"/>
         <v>36.290900000000015</v>
       </c>
@@ -18671,7 +18674,7 @@
       </c>
       <c r="C637" s="13"/>
       <c r="D637" s="39"/>
-      <c r="E637" s="63">
+      <c r="E637" s="52">
         <f t="shared" si="12"/>
         <v>36.290900000000015</v>
       </c>
@@ -18694,7 +18697,7 @@
       </c>
       <c r="C638" s="13"/>
       <c r="D638" s="39"/>
-      <c r="E638" s="63">
+      <c r="E638" s="52">
         <f t="shared" si="12"/>
         <v>36.290900000000015</v>
       </c>
@@ -18719,7 +18722,7 @@
       </c>
       <c r="C639" s="13"/>
       <c r="D639" s="39"/>
-      <c r="E639" s="63">
+      <c r="E639" s="52">
         <f t="shared" si="12"/>
         <v>36.290900000000015</v>
       </c>
@@ -18742,7 +18745,7 @@
       </c>
       <c r="C640" s="13"/>
       <c r="D640" s="39"/>
-      <c r="E640" s="63">
+      <c r="E640" s="52">
         <f t="shared" si="12"/>
         <v>36.290900000000015</v>
       </c>
@@ -18769,7 +18772,7 @@
         <v>1.25</v>
       </c>
       <c r="D641" s="39"/>
-      <c r="E641" s="63">
+      <c r="E641" s="52">
         <f t="shared" si="12"/>
         <v>37.540900000000015</v>
       </c>
@@ -18792,7 +18795,7 @@
         <v>1.25</v>
       </c>
       <c r="D642" s="39"/>
-      <c r="E642" s="63">
+      <c r="E642" s="52">
         <f t="shared" si="12"/>
         <v>38.790900000000015</v>
       </c>
@@ -18815,7 +18818,7 @@
         <v>1.25</v>
       </c>
       <c r="D643" s="39"/>
-      <c r="E643" s="63">
+      <c r="E643" s="52">
         <f t="shared" si="12"/>
         <v>40.040900000000015</v>
       </c>
@@ -18838,7 +18841,7 @@
         <v>1.25</v>
       </c>
       <c r="D644" s="39"/>
-      <c r="E644" s="63">
+      <c r="E644" s="52">
         <f t="shared" si="12"/>
         <v>41.290900000000015</v>
       </c>
@@ -18863,7 +18866,7 @@
         <v>1.25</v>
       </c>
       <c r="D645" s="39"/>
-      <c r="E645" s="63">
+      <c r="E645" s="52">
         <f t="shared" si="12"/>
         <v>42.540900000000015</v>
       </c>
@@ -18890,7 +18893,7 @@
       <c r="D646" s="39">
         <v>1</v>
       </c>
-      <c r="E646" s="63">
+      <c r="E646" s="52">
         <f t="shared" si="12"/>
         <v>41.540900000000015</v>
       </c>
@@ -18913,7 +18916,7 @@
       </c>
       <c r="C647" s="13"/>
       <c r="D647" s="39"/>
-      <c r="E647" s="63">
+      <c r="E647" s="52">
         <f t="shared" si="12"/>
         <v>41.540900000000015</v>
       </c>
@@ -18944,7 +18947,7 @@
       <c r="D648" s="39">
         <v>6.5</v>
       </c>
-      <c r="E648" s="63">
+      <c r="E648" s="52">
         <f t="shared" si="12"/>
         <v>36.290900000000015</v>
       </c>
@@ -18967,7 +18970,7 @@
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
       <c r="D649" s="39"/>
-      <c r="E649" s="63">
+      <c r="E649" s="52">
         <f t="shared" si="12"/>
         <v>36.290900000000015</v>
       </c>
@@ -18992,7 +18995,7 @@
         <v>1.25</v>
       </c>
       <c r="D650" s="39"/>
-      <c r="E650" s="63">
+      <c r="E650" s="52">
         <f t="shared" si="12"/>
         <v>37.540900000000015</v>
       </c>
@@ -19017,7 +19020,7 @@
         <v>1.25</v>
       </c>
       <c r="D651" s="39"/>
-      <c r="E651" s="63">
+      <c r="E651" s="52">
         <f t="shared" si="12"/>
         <v>38.790900000000015</v>
       </c>
@@ -19042,7 +19045,7 @@
         <v>1.25</v>
       </c>
       <c r="D652" s="39"/>
-      <c r="E652" s="63">
+      <c r="E652" s="52">
         <f t="shared" si="12"/>
         <v>40.040900000000015</v>
       </c>
@@ -19073,7 +19076,7 @@
       <c r="D653" s="39">
         <v>3</v>
       </c>
-      <c r="E653" s="63">
+      <c r="E653" s="52">
         <f t="shared" si="12"/>
         <v>38.290900000000015</v>
       </c>
@@ -19100,7 +19103,7 @@
         <v>1.25</v>
       </c>
       <c r="D654" s="39"/>
-      <c r="E654" s="63">
+      <c r="E654" s="52">
         <f t="shared" si="12"/>
         <v>39.540900000000015</v>
       </c>
@@ -19123,13 +19126,15 @@
         <v>45078</v>
       </c>
       <c r="B655" s="20"/>
-      <c r="C655" s="13"/>
+      <c r="C655" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D655" s="39"/>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
-      <c r="G655" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G655" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H655" s="39"/>
       <c r="I655" s="9"/>
@@ -19140,7 +19145,9 @@
       <c r="A656" s="40">
         <v>45108</v>
       </c>
-      <c r="B656" s="20"/>
+      <c r="B656" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C656" s="13"/>
       <c r="D656" s="39"/>
       <c r="E656" s="9"/>
@@ -19149,10 +19156,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H656" s="39"/>
+      <c r="H656" s="39">
+        <v>3</v>
+      </c>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
-      <c r="K656" s="20"/>
+      <c r="K656" s="20" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40">
@@ -19570,17 +19581,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="J1" s="61" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -19662,17 +19673,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="62" t="s">
+      <c r="I6" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="62"/>
-      <c r="K6" s="62"/>
-      <c r="L6" s="62"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="63"/>
+      <c r="L6" s="63"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>117.2738999999998</v>
+        <v>116.7738999999998</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
